--- a/src/assets/MembershipData.xlsx
+++ b/src/assets/MembershipData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\tam-members\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9FDD01-39BA-4700-BFB1-AB3980B91A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AE638B-538C-4C6D-A6F9-0872F936A722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{1F51C348-A47B-4F17-A7FA-BEAAD77C1C4F}"/>
   </bookViews>
@@ -2070,9 +2070,6 @@
     <t>Ganugapati</t>
   </si>
   <si>
-    <t>sridhar.ganugapati@gmail.com,sailakshmi670@gmail.com</t>
-  </si>
-  <si>
     <t>Sridharreddy</t>
   </si>
   <si>
@@ -2902,6 +2899,9 @@
   </si>
   <si>
     <t>Benevity</t>
+  </si>
+  <si>
+    <t>sridhar.ganugapati@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3630,8 +3630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3152D-0757-464D-9D51-AEB4CC777707}">
   <dimension ref="A1:I401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3969,7 +3969,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -4015,7 +4015,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -4153,7 +4153,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -4176,7 +4176,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -4245,7 +4245,7 @@
         <v>18</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -4291,7 +4291,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -4314,7 +4314,7 @@
         <v>49</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -4337,7 +4337,7 @@
         <v>49</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -4360,7 +4360,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -4611,7 +4611,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -4680,7 +4680,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -4703,7 +4703,7 @@
         <v>18</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -4795,7 +4795,7 @@
         <v>18</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -5002,7 +5002,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -5071,7 +5071,7 @@
         <v>18</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -5232,7 +5232,7 @@
         <v>7</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -5255,7 +5255,7 @@
         <v>18</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -5437,7 +5437,7 @@
         <v>7</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -5460,7 +5460,7 @@
         <v>49</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -5690,7 +5690,7 @@
         <v>7</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -5805,7 +5805,7 @@
         <v>18</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -5851,7 +5851,7 @@
         <v>18</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -5920,7 +5920,7 @@
         <v>7</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -6242,7 +6242,7 @@
         <v>18</v>
       </c>
       <c r="F113" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -6470,7 +6470,7 @@
         <v>18</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -6815,7 +6815,7 @@
         <v>18</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -6838,7 +6838,7 @@
         <v>49</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
@@ -6976,7 +6976,7 @@
         <v>7</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
@@ -7160,7 +7160,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
@@ -7183,7 +7183,7 @@
         <v>18</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
@@ -7206,7 +7206,7 @@
         <v>7</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
@@ -7432,7 +7432,7 @@
         <v>7</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
@@ -7545,7 +7545,7 @@
         <v>18</v>
       </c>
       <c r="F170" s="36" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
@@ -7633,7 +7633,7 @@
         <v>18</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
@@ -7817,7 +7817,7 @@
         <v>18</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
@@ -8254,7 +8254,7 @@
         <v>18</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
@@ -8323,7 +8323,7 @@
         <v>18</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
@@ -8392,7 +8392,7 @@
         <v>18</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
@@ -8576,7 +8576,7 @@
         <v>7</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
@@ -8691,7 +8691,7 @@
         <v>18</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
@@ -8760,7 +8760,7 @@
         <v>7</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
@@ -8894,7 +8894,7 @@
         <v>18</v>
       </c>
       <c r="F229" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
@@ -8917,7 +8917,7 @@
         <v>7</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
@@ -8940,7 +8940,7 @@
         <v>7</v>
       </c>
       <c r="F231" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
@@ -8963,7 +8963,7 @@
         <v>49</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
@@ -9032,7 +9032,7 @@
         <v>7</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
@@ -9193,7 +9193,7 @@
         <v>7</v>
       </c>
       <c r="F242" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
@@ -9383,15 +9383,15 @@
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
     </row>
-    <row r="251" spans="1:9" ht="27" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A251" s="18" t="s">
         <v>677</v>
       </c>
       <c r="B251" s="18" t="s">
         <v>680</v>
       </c>
-      <c r="C251" s="19" t="s">
-        <v>681</v>
+      <c r="C251" s="13" t="s">
+        <v>958</v>
       </c>
       <c r="D251" s="8" t="s">
         <v>2</v>
@@ -9408,13 +9408,13 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A252" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="C252" s="13" t="s">
         <v>683</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>684</v>
       </c>
       <c r="D252" s="14">
         <v>9016561287</v>
@@ -9431,13 +9431,13 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A253" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="B253" s="18" t="s">
         <v>685</v>
       </c>
-      <c r="B253" s="18" t="s">
+      <c r="C253" s="13" t="s">
         <v>686</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>687</v>
       </c>
       <c r="D253" s="61">
         <v>8622139394</v>
@@ -9454,13 +9454,13 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A254" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="C254" s="19" t="s">
         <v>689</v>
-      </c>
-      <c r="C254" s="19" t="s">
-        <v>690</v>
       </c>
       <c r="D254" s="25">
         <v>2012183928</v>
@@ -9469,7 +9469,7 @@
         <v>7</v>
       </c>
       <c r="F254" s="25" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
@@ -9477,13 +9477,13 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A255" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="B255" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="B255" s="18" t="s">
+      <c r="C255" s="19" t="s">
         <v>692</v>
-      </c>
-      <c r="C255" s="19" t="s">
-        <v>693</v>
       </c>
       <c r="D255" s="36">
         <v>9015383549</v>
@@ -9500,13 +9500,13 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A256" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B256" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="C256" s="13" t="s">
         <v>695</v>
-      </c>
-      <c r="C256" s="13" t="s">
-        <v>696</v>
       </c>
       <c r="D256" s="8" t="s">
         <v>2</v>
@@ -9523,10 +9523,10 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A257" s="34" t="s">
+        <v>696</v>
+      </c>
+      <c r="B257" s="34" t="s">
         <v>697</v>
-      </c>
-      <c r="B257" s="34" t="s">
-        <v>698</v>
       </c>
       <c r="C257" s="19" t="s">
         <v>2</v>
@@ -9546,13 +9546,13 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A258" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="B258" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="B258" s="18" t="s">
+      <c r="C258" s="19" t="s">
         <v>700</v>
-      </c>
-      <c r="C258" s="19" t="s">
-        <v>701</v>
       </c>
       <c r="D258" s="8" t="s">
         <v>2</v>
@@ -9569,13 +9569,13 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A259" s="62" t="s">
+        <v>701</v>
+      </c>
+      <c r="B259" s="62" t="s">
         <v>702</v>
       </c>
-      <c r="B259" s="62" t="s">
+      <c r="C259" s="19" t="s">
         <v>703</v>
-      </c>
-      <c r="C259" s="19" t="s">
-        <v>704</v>
       </c>
       <c r="D259" s="9">
         <v>4792680441</v>
@@ -9584,7 +9584,7 @@
         <v>7</v>
       </c>
       <c r="F259" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
@@ -9592,13 +9592,13 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A260" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="B260" s="18" t="s">
         <v>705</v>
       </c>
-      <c r="B260" s="18" t="s">
+      <c r="C260" s="19" t="s">
         <v>706</v>
-      </c>
-      <c r="C260" s="19" t="s">
-        <v>707</v>
       </c>
       <c r="D260" s="14">
         <v>9019075978</v>
@@ -9615,13 +9615,13 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A261" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B261" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C261" s="13" t="s">
         <v>708</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>709</v>
       </c>
       <c r="D261" s="8" t="s">
         <v>2</v>
@@ -9638,13 +9638,13 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A262" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B262" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="C262" s="13" t="s">
         <v>710</v>
-      </c>
-      <c r="C262" s="13" t="s">
-        <v>711</v>
       </c>
       <c r="D262" s="8" t="s">
         <v>2</v>
@@ -9661,10 +9661,10 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A263" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="B263" s="18" t="s">
         <v>712</v>
-      </c>
-      <c r="B263" s="18" t="s">
-        <v>713</v>
       </c>
       <c r="C263" s="19" t="s">
         <v>2</v>
@@ -9684,13 +9684,13 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A264" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="B264" s="32" t="s">
         <v>714</v>
       </c>
-      <c r="B264" s="32" t="s">
+      <c r="C264" s="32" t="s">
         <v>715</v>
-      </c>
-      <c r="C264" s="32" t="s">
-        <v>716</v>
       </c>
       <c r="D264" s="32"/>
       <c r="E264" s="31" t="s">
@@ -9705,13 +9705,13 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A265" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="B265" s="29" t="s">
         <v>717</v>
       </c>
-      <c r="B265" s="29" t="s">
+      <c r="C265" s="13" t="s">
         <v>718</v>
-      </c>
-      <c r="C265" s="13" t="s">
-        <v>719</v>
       </c>
       <c r="D265" s="8" t="s">
         <v>2</v>
@@ -9728,13 +9728,13 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A266" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="B266" s="18" t="s">
         <v>720</v>
       </c>
-      <c r="B266" s="18" t="s">
+      <c r="C266" s="13" t="s">
         <v>721</v>
-      </c>
-      <c r="C266" s="13" t="s">
-        <v>722</v>
       </c>
       <c r="D266" s="8">
         <v>2017746474</v>
@@ -9751,13 +9751,13 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A267" s="34" t="s">
+        <v>722</v>
+      </c>
+      <c r="B267" s="34" t="s">
         <v>723</v>
       </c>
-      <c r="B267" s="34" t="s">
+      <c r="C267" s="19" t="s">
         <v>724</v>
-      </c>
-      <c r="C267" s="19" t="s">
-        <v>725</v>
       </c>
       <c r="D267" s="8" t="s">
         <v>2</v>
@@ -9774,7 +9774,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A268" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>2</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A269" s="32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B269" s="32"/>
       <c r="C269" s="32"/>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A270" s="32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B270" s="32"/>
       <c r="C270" s="32"/>
@@ -9831,13 +9831,13 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A271" s="31" t="s">
+        <v>728</v>
+      </c>
+      <c r="B271" s="31" t="s">
         <v>729</v>
       </c>
-      <c r="B271" s="31" t="s">
+      <c r="C271" s="31" t="s">
         <v>730</v>
-      </c>
-      <c r="C271" s="31" t="s">
-        <v>731</v>
       </c>
       <c r="D271" s="32" t="s">
         <v>2</v>
@@ -9854,11 +9854,11 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A272" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B272" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="B272" s="5" t="s">
-        <v>733</v>
-      </c>
       <c r="C272" s="19" t="s">
         <v>2</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>7</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
@@ -9877,10 +9877,10 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A273" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B273" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>735</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>2</v>
@@ -9900,22 +9900,22 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A274" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B274" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="C274" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="C274" s="5" t="s">
+      <c r="D274" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="D274" s="9" t="s">
-        <v>739</v>
-      </c>
       <c r="E274" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
@@ -9923,13 +9923,13 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A275" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B275" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="C275" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>742</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>2</v>
@@ -9946,10 +9946,10 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A276" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="B276" s="18" t="s">
         <v>743</v>
-      </c>
-      <c r="B276" s="18" t="s">
-        <v>744</v>
       </c>
       <c r="C276" s="19" t="s">
         <v>2</v>
@@ -9969,13 +9969,13 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A277" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="B277" s="26" t="s">
         <v>745</v>
       </c>
-      <c r="B277" s="26" t="s">
+      <c r="C277" s="13" t="s">
         <v>746</v>
-      </c>
-      <c r="C277" s="13" t="s">
-        <v>747</v>
       </c>
       <c r="D277" s="8" t="s">
         <v>2</v>
@@ -9992,10 +9992,10 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A278" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B278" s="5" t="s">
         <v>748</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>749</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>2</v>
@@ -10015,13 +10015,13 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A279" s="34" t="s">
+        <v>749</v>
+      </c>
+      <c r="B279" s="34" t="s">
         <v>750</v>
       </c>
-      <c r="B279" s="34" t="s">
+      <c r="C279" s="19" t="s">
         <v>751</v>
-      </c>
-      <c r="C279" s="19" t="s">
-        <v>752</v>
       </c>
       <c r="D279" s="8" t="s">
         <v>2</v>
@@ -10038,13 +10038,13 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A280" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="B280" s="26" t="s">
         <v>753</v>
       </c>
-      <c r="B280" s="26" t="s">
+      <c r="C280" s="13" t="s">
         <v>754</v>
-      </c>
-      <c r="C280" s="13" t="s">
-        <v>755</v>
       </c>
       <c r="D280" s="8" t="s">
         <v>2</v>
@@ -10061,10 +10061,10 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A281" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B281" s="5" t="s">
         <v>756</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>757</v>
       </c>
       <c r="C281" s="19" t="s">
         <v>2</v>
@@ -10076,7 +10076,7 @@
         <v>18</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
@@ -10084,13 +10084,13 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A282" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="B282" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="B282" s="18" t="s">
+      <c r="C282" s="19" t="s">
         <v>759</v>
-      </c>
-      <c r="C282" s="19" t="s">
-        <v>760</v>
       </c>
       <c r="D282" s="8" t="s">
         <v>2</v>
@@ -10107,13 +10107,13 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A283" s="53" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B283" s="53" t="s">
         <v>399</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D283" s="6">
         <v>2243580920</v>
@@ -10130,13 +10130,13 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A284" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="B284" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="B284" s="18" t="s">
+      <c r="C284" s="19" t="s">
         <v>763</v>
-      </c>
-      <c r="C284" s="19" t="s">
-        <v>764</v>
       </c>
       <c r="D284" s="14">
         <v>5512635799</v>
@@ -10145,7 +10145,7 @@
         <v>18</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
@@ -10153,13 +10153,13 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A285" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="B285" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="C285" s="19" t="s">
         <v>766</v>
-      </c>
-      <c r="C285" s="19" t="s">
-        <v>767</v>
       </c>
       <c r="D285" s="16">
         <v>9013182909</v>
@@ -10176,13 +10176,13 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A286" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B286" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="C286" s="5" t="s">
         <v>768</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>769</v>
       </c>
       <c r="D286" s="9">
         <v>9015671292</v>
@@ -10191,7 +10191,7 @@
         <v>7</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
@@ -10199,13 +10199,13 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A287" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B287" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="C287" s="19" t="s">
         <v>771</v>
-      </c>
-      <c r="C287" s="19" t="s">
-        <v>772</v>
       </c>
       <c r="D287" s="8">
         <v>9014094813</v>
@@ -10214,7 +10214,7 @@
         <v>18</v>
       </c>
       <c r="F287" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
@@ -10222,10 +10222,10 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A288" s="18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C288" s="19" t="s">
         <v>2</v>
@@ -10245,13 +10245,13 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A289" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B289" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="B289" s="5" t="s">
+      <c r="C289" s="13" t="s">
         <v>775</v>
-      </c>
-      <c r="C289" s="13" t="s">
-        <v>776</v>
       </c>
       <c r="D289" s="8" t="s">
         <v>2</v>
@@ -10268,10 +10268,10 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A290" s="34" t="s">
+        <v>776</v>
+      </c>
+      <c r="B290" s="34" t="s">
         <v>777</v>
-      </c>
-      <c r="B290" s="34" t="s">
-        <v>778</v>
       </c>
       <c r="C290" s="19" t="s">
         <v>2</v>
@@ -10291,13 +10291,13 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A291" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B291" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="B291" s="5" t="s">
+      <c r="C291" s="5" t="s">
         <v>780</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>781</v>
       </c>
       <c r="D291" s="8" t="s">
         <v>2</v>
@@ -10314,13 +10314,13 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A292" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B292" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="C292" s="19" t="s">
         <v>783</v>
-      </c>
-      <c r="C292" s="19" t="s">
-        <v>784</v>
       </c>
       <c r="D292" s="16">
         <v>9015187539</v>
@@ -10329,7 +10329,7 @@
         <v>18</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
@@ -10337,11 +10337,11 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A293" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B293" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="B293" s="5" t="s">
-        <v>786</v>
-      </c>
       <c r="C293" s="19" t="s">
         <v>2</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>7</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
@@ -10360,10 +10360,10 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A294" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B294" s="5" t="s">
         <v>787</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>788</v>
       </c>
       <c r="C294" s="19" t="s">
         <v>2</v>
@@ -10375,7 +10375,7 @@
         <v>49</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
@@ -10383,13 +10383,13 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A295" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="B295" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="B295" s="18" t="s">
+      <c r="C295" s="19" t="s">
         <v>790</v>
-      </c>
-      <c r="C295" s="19" t="s">
-        <v>791</v>
       </c>
       <c r="D295" s="14">
         <v>9012830473</v>
@@ -10406,13 +10406,13 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A296" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="C296" s="19" t="s">
         <v>792</v>
-      </c>
-      <c r="C296" s="19" t="s">
-        <v>793</v>
       </c>
       <c r="D296" s="8">
         <v>4792766087</v>
@@ -10429,13 +10429,13 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A297" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C297" s="13" t="s">
         <v>794</v>
-      </c>
-      <c r="C297" s="13" t="s">
-        <v>795</v>
       </c>
       <c r="D297" s="14">
         <v>5189158066</v>
@@ -10452,13 +10452,13 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A298" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B298" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="B298" s="5" t="s">
+      <c r="C298" s="13" t="s">
         <v>797</v>
-      </c>
-      <c r="C298" s="13" t="s">
-        <v>798</v>
       </c>
       <c r="D298" s="8" t="s">
         <v>2</v>
@@ -10475,13 +10475,13 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A299" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B299" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="C299" s="13" t="s">
         <v>800</v>
-      </c>
-      <c r="C299" s="13" t="s">
-        <v>801</v>
       </c>
       <c r="D299" s="8">
         <v>9013366583</v>
@@ -10490,7 +10490,7 @@
         <v>7</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
@@ -10498,10 +10498,10 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A300" s="43" t="s">
+        <v>801</v>
+      </c>
+      <c r="B300" s="43" t="s">
         <v>802</v>
-      </c>
-      <c r="B300" s="43" t="s">
-        <v>803</v>
       </c>
       <c r="C300" s="43" t="s">
         <v>2</v>
@@ -10521,10 +10521,10 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A301" s="41" t="s">
+        <v>803</v>
+      </c>
+      <c r="B301" s="41" t="s">
         <v>804</v>
-      </c>
-      <c r="B301" s="41" t="s">
-        <v>805</v>
       </c>
       <c r="C301" s="41" t="s">
         <v>2</v>
@@ -10544,13 +10544,13 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A302" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B302" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="B302" s="5" t="s">
+      <c r="C302" s="5" t="s">
         <v>807</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>808</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>2</v>
@@ -10567,10 +10567,10 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A303" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B303" s="5" t="s">
         <v>809</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>810</v>
       </c>
       <c r="C303" s="19" t="s">
         <v>2</v>
@@ -10590,10 +10590,10 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A304" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B304" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>812</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>2</v>
@@ -10613,13 +10613,13 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A305" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="B305" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="B305" s="18" t="s">
+      <c r="C305" s="19" t="s">
         <v>814</v>
-      </c>
-      <c r="C305" s="19" t="s">
-        <v>815</v>
       </c>
       <c r="D305" s="16">
         <v>9012301245</v>
@@ -10636,10 +10636,10 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A306" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="B306" s="18" t="s">
         <v>816</v>
-      </c>
-      <c r="B306" s="18" t="s">
-        <v>817</v>
       </c>
       <c r="C306" s="19" t="s">
         <v>2</v>
@@ -10659,13 +10659,13 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A307" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B307" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="B307" s="5" t="s">
+      <c r="C307" s="19" t="s">
         <v>819</v>
-      </c>
-      <c r="C307" s="19" t="s">
-        <v>820</v>
       </c>
       <c r="D307" s="8" t="s">
         <v>2</v>
@@ -10682,13 +10682,13 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A308" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="B308" s="26" t="s">
         <v>821</v>
       </c>
-      <c r="B308" s="26" t="s">
+      <c r="C308" s="13" t="s">
         <v>822</v>
-      </c>
-      <c r="C308" s="13" t="s">
-        <v>823</v>
       </c>
       <c r="D308" s="8" t="s">
         <v>2</v>
@@ -10697,7 +10697,7 @@
         <v>60</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
@@ -10705,13 +10705,13 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A309" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="B309" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="B309" s="5" t="s">
+      <c r="C309" s="19" t="s">
         <v>825</v>
-      </c>
-      <c r="C309" s="19" t="s">
-        <v>826</v>
       </c>
       <c r="D309" s="11">
         <v>4088937553</v>
@@ -10728,13 +10728,13 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A310" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B310" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C310" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="C310" s="19" t="s">
-        <v>828</v>
       </c>
       <c r="D310" s="8">
         <v>9018601788</v>
@@ -10743,7 +10743,7 @@
         <v>18</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
@@ -10751,10 +10751,10 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A311" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C311" s="19" t="s">
         <v>2</v>
@@ -10774,13 +10774,13 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A312" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B312" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="B312" s="5" t="s">
+      <c r="C312" s="5" t="s">
         <v>831</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>832</v>
       </c>
       <c r="D312" s="8">
         <v>9734528251</v>
@@ -10797,10 +10797,10 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A313" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="B313" s="5" t="s">
         <v>833</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>834</v>
       </c>
       <c r="C313" s="19" t="s">
         <v>2</v>
@@ -10812,7 +10812,7 @@
         <v>18</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
@@ -10820,10 +10820,10 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A314" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="B314" s="18" t="s">
         <v>835</v>
-      </c>
-      <c r="B314" s="18" t="s">
-        <v>836</v>
       </c>
       <c r="C314" s="19" t="s">
         <v>2</v>
@@ -10843,13 +10843,13 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A315" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="B315" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="B315" s="18" t="s">
+      <c r="C315" s="13" t="s">
         <v>838</v>
-      </c>
-      <c r="C315" s="13" t="s">
-        <v>839</v>
       </c>
       <c r="D315" s="8">
         <v>9174421560</v>
@@ -10866,11 +10866,11 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A316" s="33" t="s">
+        <v>839</v>
+      </c>
+      <c r="B316" s="34" t="s">
         <v>840</v>
       </c>
-      <c r="B316" s="34" t="s">
-        <v>841</v>
-      </c>
       <c r="C316" s="19" t="s">
         <v>2</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>7</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
@@ -10889,10 +10889,10 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A317" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="B317" s="18" t="s">
         <v>842</v>
-      </c>
-      <c r="B317" s="18" t="s">
-        <v>843</v>
       </c>
       <c r="C317" s="19" t="s">
         <v>2</v>
@@ -10912,13 +10912,13 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A318" s="34" t="s">
+        <v>843</v>
+      </c>
+      <c r="B318" s="34" t="s">
         <v>844</v>
       </c>
-      <c r="B318" s="34" t="s">
+      <c r="C318" s="13" t="s">
         <v>845</v>
-      </c>
-      <c r="C318" s="13" t="s">
-        <v>846</v>
       </c>
       <c r="D318" s="8">
         <v>2292961363</v>
@@ -10935,13 +10935,13 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A319" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="B319" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="B319" s="18" t="s">
+      <c r="C319" s="19" t="s">
         <v>848</v>
-      </c>
-      <c r="C319" s="19" t="s">
-        <v>849</v>
       </c>
       <c r="D319" s="8" t="s">
         <v>2</v>
@@ -10958,13 +10958,13 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A320" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B320" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="B320" s="5" t="s">
+      <c r="C320" s="13" t="s">
         <v>851</v>
-      </c>
-      <c r="C320" s="13" t="s">
-        <v>852</v>
       </c>
       <c r="D320" s="8">
         <v>9016923537</v>
@@ -10973,7 +10973,7 @@
         <v>7</v>
       </c>
       <c r="F320" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
@@ -10981,13 +10981,13 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A321" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B321" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="B321" s="5" t="s">
+      <c r="C321" s="13" t="s">
         <v>854</v>
-      </c>
-      <c r="C321" s="13" t="s">
-        <v>855</v>
       </c>
       <c r="D321" s="8">
         <v>9452788304</v>
@@ -11004,13 +11004,13 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A322" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B322" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="B322" s="5" t="s">
+      <c r="C322" s="19" t="s">
         <v>857</v>
-      </c>
-      <c r="C322" s="19" t="s">
-        <v>858</v>
       </c>
       <c r="D322" s="22" t="s">
         <v>2</v>
@@ -11027,13 +11027,13 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A323" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B323" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="C323" s="5" t="s">
         <v>859</v>
-      </c>
-      <c r="C323" s="5" t="s">
-        <v>860</v>
       </c>
       <c r="D323" s="8">
         <v>9014943249</v>
@@ -11050,10 +11050,10 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A324" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>2</v>
@@ -11065,7 +11065,7 @@
         <v>18</v>
       </c>
       <c r="F324" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
@@ -11073,13 +11073,13 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A325" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>536</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D325" s="8" t="s">
         <v>2</v>
@@ -11088,7 +11088,7 @@
         <v>18</v>
       </c>
       <c r="F325" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
@@ -11096,13 +11096,13 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A326" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="B326" s="18" t="s">
         <v>863</v>
       </c>
-      <c r="B326" s="18" t="s">
+      <c r="C326" s="19" t="s">
         <v>864</v>
-      </c>
-      <c r="C326" s="19" t="s">
-        <v>865</v>
       </c>
       <c r="D326" s="15">
         <v>9014688754</v>
@@ -11119,13 +11119,13 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A327" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="B327" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="B327" s="5" t="s">
+      <c r="C327" s="5" t="s">
         <v>867</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>868</v>
       </c>
       <c r="D327" s="8">
         <v>9014719225</v>
@@ -11142,13 +11142,13 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A328" s="18" t="s">
+        <v>868</v>
+      </c>
+      <c r="B328" s="18" t="s">
         <v>869</v>
       </c>
-      <c r="B328" s="18" t="s">
+      <c r="C328" s="13" t="s">
         <v>870</v>
-      </c>
-      <c r="C328" s="13" t="s">
-        <v>871</v>
       </c>
       <c r="D328" s="8" t="s">
         <v>2</v>
@@ -11157,7 +11157,7 @@
         <v>18</v>
       </c>
       <c r="F328" s="25" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
@@ -11165,10 +11165,10 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A329" s="18" t="s">
+        <v>871</v>
+      </c>
+      <c r="B329" s="18" t="s">
         <v>872</v>
-      </c>
-      <c r="B329" s="18" t="s">
-        <v>873</v>
       </c>
       <c r="C329" s="19" t="s">
         <v>2</v>
@@ -11188,13 +11188,13 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A330" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="B330" s="24" t="s">
         <v>874</v>
       </c>
-      <c r="B330" s="24" t="s">
+      <c r="C330" s="19" t="s">
         <v>875</v>
-      </c>
-      <c r="C330" s="19" t="s">
-        <v>876</v>
       </c>
       <c r="D330" s="15">
         <v>8607185376</v>
@@ -11211,13 +11211,13 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A331" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B331" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="C331" s="19" t="s">
         <v>877</v>
-      </c>
-      <c r="C331" s="19" t="s">
-        <v>878</v>
       </c>
       <c r="D331" s="36">
         <v>9019108065</v>
@@ -11234,10 +11234,10 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A332" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B332" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="C332" s="19" t="s">
         <v>2</v>
@@ -11257,13 +11257,13 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A333" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B333" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="C333" s="5" t="s">
         <v>881</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>882</v>
       </c>
       <c r="D333" s="8">
         <v>2407010047</v>
@@ -11280,13 +11280,13 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A334" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="B334" s="18" t="s">
         <v>883</v>
       </c>
-      <c r="B334" s="18" t="s">
+      <c r="C334" s="13" t="s">
         <v>884</v>
-      </c>
-      <c r="C334" s="13" t="s">
-        <v>885</v>
       </c>
       <c r="D334" s="36">
         <v>7347408954</v>
@@ -11303,13 +11303,13 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A335" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B335" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C335" s="13" t="s">
         <v>886</v>
-      </c>
-      <c r="C335" s="13" t="s">
-        <v>887</v>
       </c>
       <c r="D335" s="8">
         <v>9016512460</v>
@@ -11318,7 +11318,7 @@
         <v>18</v>
       </c>
       <c r="F335" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
@@ -11326,16 +11326,16 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A336" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B336" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="C336" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="C336" s="5" t="s">
+      <c r="D336" s="8" t="s">
         <v>889</v>
-      </c>
-      <c r="D336" s="8" t="s">
-        <v>890</v>
       </c>
       <c r="E336" s="8" t="s">
         <v>7</v>
@@ -11349,13 +11349,13 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A337" s="34" t="s">
+        <v>890</v>
+      </c>
+      <c r="B337" s="34" t="s">
         <v>891</v>
       </c>
-      <c r="B337" s="34" t="s">
+      <c r="C337" s="19" t="s">
         <v>892</v>
-      </c>
-      <c r="C337" s="19" t="s">
-        <v>893</v>
       </c>
       <c r="D337" s="8" t="s">
         <v>2</v>
@@ -11372,10 +11372,10 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A338" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="B338" s="18" t="s">
         <v>894</v>
-      </c>
-      <c r="B338" s="18" t="s">
-        <v>895</v>
       </c>
       <c r="C338" s="19" t="s">
         <v>2</v>
@@ -11395,13 +11395,13 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A339" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B339" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="B339" s="5" t="s">
+      <c r="C339" s="13" t="s">
         <v>897</v>
-      </c>
-      <c r="C339" s="13" t="s">
-        <v>898</v>
       </c>
       <c r="D339" s="8" t="s">
         <v>2</v>
@@ -11418,13 +11418,13 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A340" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="B340" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="C340" s="7" t="s">
         <v>900</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>901</v>
       </c>
       <c r="D340" s="32"/>
       <c r="E340" s="35" t="s">
@@ -11439,13 +11439,13 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A341" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B341" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="B341" s="5" t="s">
+      <c r="C341" s="5" t="s">
         <v>903</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>904</v>
       </c>
       <c r="D341" s="8">
         <v>2019697241</v>
@@ -11462,13 +11462,13 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A342" s="32" t="s">
+        <v>904</v>
+      </c>
+      <c r="B342" s="32" t="s">
         <v>905</v>
       </c>
-      <c r="B342" s="32" t="s">
+      <c r="C342" s="55" t="s">
         <v>906</v>
-      </c>
-      <c r="C342" s="55" t="s">
-        <v>907</v>
       </c>
       <c r="D342" s="32"/>
       <c r="E342" s="36" t="s">
@@ -11483,10 +11483,10 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A343" s="32" t="s">
+        <v>907</v>
+      </c>
+      <c r="B343" s="32" t="s">
         <v>908</v>
-      </c>
-      <c r="B343" s="32" t="s">
-        <v>909</v>
       </c>
       <c r="C343" s="32"/>
       <c r="D343" s="32"/>
@@ -11502,10 +11502,10 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A344" s="32" t="s">
+        <v>909</v>
+      </c>
+      <c r="B344" s="32" t="s">
         <v>910</v>
-      </c>
-      <c r="B344" s="32" t="s">
-        <v>911</v>
       </c>
       <c r="C344" s="32"/>
       <c r="D344" s="32"/>
@@ -11521,10 +11521,10 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A345" s="32" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B345" s="32" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C345" s="32"/>
       <c r="D345" s="32"/>
@@ -11540,10 +11540,10 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A346" s="64" t="s">
+        <v>912</v>
+      </c>
+      <c r="B346" s="64" t="s">
         <v>913</v>
-      </c>
-      <c r="B346" s="64" t="s">
-        <v>914</v>
       </c>
       <c r="C346" s="32"/>
       <c r="D346" s="32"/>
@@ -11559,10 +11559,10 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A347" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="B347" s="32" t="s">
         <v>915</v>
-      </c>
-      <c r="B347" s="32" t="s">
-        <v>916</v>
       </c>
       <c r="C347" s="32"/>
       <c r="D347" s="32"/>
@@ -11578,10 +11578,10 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A348" s="32" t="s">
+        <v>916</v>
+      </c>
+      <c r="B348" s="32" t="s">
         <v>917</v>
-      </c>
-      <c r="B348" s="32" t="s">
-        <v>918</v>
       </c>
       <c r="C348" s="32"/>
       <c r="D348" s="32"/>
@@ -11597,10 +11597,10 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A349" s="32" t="s">
+        <v>918</v>
+      </c>
+      <c r="B349" s="32" t="s">
         <v>919</v>
-      </c>
-      <c r="B349" s="32" t="s">
-        <v>920</v>
       </c>
       <c r="C349" s="32"/>
       <c r="D349" s="32"/>
@@ -11616,7 +11616,7 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A350" s="32" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B350" s="32" t="s">
         <v>476</v>
@@ -11627,7 +11627,7 @@
         <v>18</v>
       </c>
       <c r="F350" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
@@ -11635,10 +11635,10 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A351" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B351" s="32" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C351" s="32"/>
       <c r="D351" s="32"/>
@@ -11657,7 +11657,7 @@
         <v>311</v>
       </c>
       <c r="B352" s="32" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C352" s="32"/>
       <c r="D352" s="32"/>
@@ -11673,7 +11673,7 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A353" s="32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B353" s="32" t="s">
         <v>552</v>
@@ -11692,10 +11692,10 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A354" s="32" t="s">
+        <v>924</v>
+      </c>
+      <c r="B354" s="32" t="s">
         <v>925</v>
-      </c>
-      <c r="B354" s="32" t="s">
-        <v>926</v>
       </c>
       <c r="C354" s="32"/>
       <c r="D354" s="32"/>
@@ -11711,13 +11711,13 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A355" s="32" t="s">
+        <v>926</v>
+      </c>
+      <c r="B355" s="32" t="s">
         <v>927</v>
       </c>
-      <c r="B355" s="32" t="s">
+      <c r="C355" s="55" t="s">
         <v>928</v>
-      </c>
-      <c r="C355" s="55" t="s">
-        <v>929</v>
       </c>
       <c r="D355" s="32">
         <v>6306968371</v>
@@ -11734,13 +11734,13 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A356" s="32" t="s">
+        <v>929</v>
+      </c>
+      <c r="B356" s="32" t="s">
         <v>930</v>
       </c>
-      <c r="B356" s="32" t="s">
+      <c r="C356" s="55" t="s">
         <v>931</v>
-      </c>
-      <c r="C356" s="55" t="s">
-        <v>932</v>
       </c>
       <c r="D356" s="32">
         <v>9015908973</v>
@@ -11760,10 +11760,10 @@
         <v>238</v>
       </c>
       <c r="B357" s="32" t="s">
+        <v>932</v>
+      </c>
+      <c r="C357" s="55" t="s">
         <v>933</v>
-      </c>
-      <c r="C357" s="55" t="s">
-        <v>934</v>
       </c>
       <c r="D357" s="32">
         <v>3177039916</v>
@@ -11783,10 +11783,10 @@
         <v>273</v>
       </c>
       <c r="B358" s="32" t="s">
+        <v>934</v>
+      </c>
+      <c r="C358" s="55" t="s">
         <v>935</v>
-      </c>
-      <c r="C358" s="55" t="s">
-        <v>936</v>
       </c>
       <c r="D358" s="32">
         <v>8132299950</v>
@@ -11803,13 +11803,13 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A359" s="32" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B359" s="32" t="s">
+        <v>936</v>
+      </c>
+      <c r="C359" s="55" t="s">
         <v>937</v>
-      </c>
-      <c r="C359" s="55" t="s">
-        <v>938</v>
       </c>
       <c r="D359" s="32"/>
       <c r="E359" s="8" t="s">
@@ -11824,13 +11824,13 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A360" s="32" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B360" s="32" t="s">
         <v>399</v>
       </c>
       <c r="C360" s="55" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D360" s="32"/>
       <c r="E360" s="7" t="s">
@@ -11845,13 +11845,13 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A361" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="B361" s="32" t="s">
         <v>941</v>
       </c>
-      <c r="B361" s="32" t="s">
+      <c r="C361" s="55" t="s">
         <v>942</v>
-      </c>
-      <c r="C361" s="55" t="s">
-        <v>943</v>
       </c>
       <c r="D361" s="32">
         <v>8175042238</v>
@@ -11868,13 +11868,13 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A362" s="32" t="s">
+        <v>943</v>
+      </c>
+      <c r="B362" s="32" t="s">
         <v>944</v>
       </c>
-      <c r="B362" s="32" t="s">
+      <c r="C362" s="55" t="s">
         <v>945</v>
-      </c>
-      <c r="C362" s="55" t="s">
-        <v>946</v>
       </c>
       <c r="D362" s="32">
         <v>8144230976</v>
@@ -11891,13 +11891,13 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A363" s="32" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B363" s="32" t="s">
         <v>62</v>
       </c>
       <c r="C363" s="65" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D363" s="32"/>
       <c r="E363" s="7" t="s">
@@ -11912,13 +11912,13 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A364" s="32" t="s">
+        <v>948</v>
+      </c>
+      <c r="B364" s="32" t="s">
         <v>949</v>
       </c>
-      <c r="B364" s="32" t="s">
+      <c r="C364" s="55" t="s">
         <v>950</v>
-      </c>
-      <c r="C364" s="55" t="s">
-        <v>951</v>
       </c>
       <c r="D364" s="32">
         <v>4254696275</v>
@@ -11938,10 +11938,10 @@
         <v>300</v>
       </c>
       <c r="B365" s="32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C365" s="65" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D365" s="32"/>
       <c r="E365" s="8" t="s">
@@ -11956,7 +11956,7 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A366" s="32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B366" s="32" t="s">
         <v>661</v>
@@ -12101,6 +12101,7 @@
     <hyperlink ref="C363" r:id="rId110" xr:uid="{DE452F2F-221B-4BB0-A62D-39CA43701943}"/>
     <hyperlink ref="C364" r:id="rId111" xr:uid="{5E40AC15-C5F9-4A4F-8554-1ABA96BF95F0}"/>
     <hyperlink ref="C365" r:id="rId112" xr:uid="{D777BC4B-472E-4762-80CE-EA80476B691D}"/>
+    <hyperlink ref="C251" r:id="rId113" xr:uid="{03EA820A-6D1F-4E98-AD6D-9B101337E1C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/MembershipData.xlsx
+++ b/src/assets/MembershipData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\tam-members\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08427F8F-9F68-497A-A775-CE828EB6C991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB36779A-3E86-4045-9AC3-F686398D3499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{1F51C348-A47B-4F17-A7FA-BEAAD77C1C4F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1016">
   <si>
     <t>Aashri</t>
   </si>
@@ -2926,6 +2926,153 @@
   </si>
   <si>
     <t>mohansaitinku123@gmail.com</t>
+  </si>
+  <si>
+    <t>Swarna</t>
+  </si>
+  <si>
+    <t>Beeesetti</t>
+  </si>
+  <si>
+    <t>swarnaiitm@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abilash Reddy </t>
+  </si>
+  <si>
+    <t>Kondalwadi</t>
+  </si>
+  <si>
+    <t>abhi2242@gmail.com</t>
+  </si>
+  <si>
+    <t>Balarama Reddy</t>
+  </si>
+  <si>
+    <t>balaram.rv@live.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divya </t>
+  </si>
+  <si>
+    <t>sharanyay.j@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raj </t>
+  </si>
+  <si>
+    <t>Kurri</t>
+  </si>
+  <si>
+    <t>ellington@gmail.com</t>
+  </si>
+  <si>
+    <t>Arvind reddy</t>
+  </si>
+  <si>
+    <t>ankireddypalli</t>
+  </si>
+  <si>
+    <t>arvindrede@gmail.com</t>
+  </si>
+  <si>
+    <t>Vamsi Krishna</t>
+  </si>
+  <si>
+    <t>Satyavarapu</t>
+  </si>
+  <si>
+    <t>vamsi.satyavarapu@gmail.com</t>
+  </si>
+  <si>
+    <t>Jagadish</t>
+  </si>
+  <si>
+    <t>Chandraiah</t>
+  </si>
+  <si>
+    <t>jaggi75@gmail.com</t>
+  </si>
+  <si>
+    <t>Gunasekaran</t>
+  </si>
+  <si>
+    <t>Sundaresan</t>
+  </si>
+  <si>
+    <t>sekar2ms@gmail.com</t>
+  </si>
+  <si>
+    <t>Purvi</t>
+  </si>
+  <si>
+    <t>purvicp@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ravsha</t>
+  </si>
+  <si>
+    <t>Jaiswal</t>
+  </si>
+  <si>
+    <t>ravsha.goenka@gmail.com</t>
+  </si>
+  <si>
+    <t>Niharika</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>sukantachem@gmail.com</t>
+  </si>
+  <si>
+    <t>Srishti</t>
+  </si>
+  <si>
+    <t>Goyal</t>
+  </si>
+  <si>
+    <t>Sahana</t>
+  </si>
+  <si>
+    <t>Mudigonolar</t>
+  </si>
+  <si>
+    <t>Vanikudlur@yahoo.com</t>
+  </si>
+  <si>
+    <t>Hemalatha</t>
+  </si>
+  <si>
+    <t>Sivaraman</t>
+  </si>
+  <si>
+    <t>hemasiva36@gmail.com</t>
+  </si>
+  <si>
+    <t>Dinesh Vamsi</t>
+  </si>
+  <si>
+    <t>Seeram</t>
+  </si>
+  <si>
+    <t>vamsi.seeram@gmail.com</t>
+  </si>
+  <si>
+    <t>Asma</t>
+  </si>
+  <si>
+    <t>Jiwani</t>
+  </si>
+  <si>
+    <t>asmajiwani@gmail.com</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurella </t>
   </si>
 </sst>
 </file>
@@ -3727,7 +3874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3152D-0757-464D-9D51-AEB4CC777707}">
   <dimension ref="A1:I401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="C384" sqref="C384"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -10580,156 +10729,356 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A370" s="10"/>
-      <c r="B370" s="10"/>
-      <c r="C370" s="10"/>
-      <c r="D370" s="10"/>
-      <c r="E370" s="10"/>
-      <c r="F370" s="65"/>
+      <c r="A370" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="B370" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="C370" s="35" t="s">
+        <v>969</v>
+      </c>
+      <c r="D370" s="10">
+        <v>9012927244</v>
+      </c>
+      <c r="E370" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F370" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A371" s="10"/>
-      <c r="B371" s="10"/>
-      <c r="C371" s="10"/>
-      <c r="D371" s="10"/>
-      <c r="E371" s="10"/>
-      <c r="F371" s="65"/>
+      <c r="A371" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="B371" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="C371" s="35" t="s">
+        <v>972</v>
+      </c>
+      <c r="D371" s="10">
+        <v>5707049424</v>
+      </c>
+      <c r="E371" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F371" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A372" s="10"/>
+      <c r="A372" s="10" t="s">
+        <v>973</v>
+      </c>
       <c r="B372" s="10"/>
-      <c r="C372" s="10"/>
-      <c r="D372" s="10"/>
-      <c r="E372" s="10"/>
-      <c r="F372" s="65"/>
+      <c r="C372" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="D372" s="10">
+        <v>9014579475</v>
+      </c>
+      <c r="E372" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F372" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A373" s="10"/>
-      <c r="B373" s="10"/>
-      <c r="C373" s="10"/>
-      <c r="D373" s="10"/>
-      <c r="E373" s="10"/>
-      <c r="F373" s="65"/>
+      <c r="A373" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C373" s="35" t="s">
+        <v>976</v>
+      </c>
+      <c r="D373" s="10">
+        <v>9016518086</v>
+      </c>
+      <c r="E373" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F373" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A374" s="10"/>
-      <c r="B374" s="10"/>
-      <c r="C374" s="10"/>
-      <c r="D374" s="10"/>
-      <c r="E374" s="10"/>
-      <c r="F374" s="65"/>
+      <c r="A374" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="B374" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="C374" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="D374" s="10">
+        <v>8603719916</v>
+      </c>
+      <c r="E374" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F374" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A375" s="10"/>
-      <c r="B375" s="10"/>
-      <c r="C375" s="10"/>
-      <c r="D375" s="10"/>
-      <c r="E375" s="10"/>
-      <c r="F375" s="65"/>
+      <c r="A375" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="C375" s="35" t="s">
+        <v>982</v>
+      </c>
+      <c r="D375" s="10">
+        <v>3476106158</v>
+      </c>
+      <c r="E375" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F375" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A376" s="10"/>
-      <c r="B376" s="10"/>
-      <c r="C376" s="10"/>
-      <c r="D376" s="10"/>
-      <c r="E376" s="10"/>
-      <c r="F376" s="65"/>
+      <c r="A376" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="C376" s="35" t="s">
+        <v>985</v>
+      </c>
+      <c r="D376" s="10">
+        <v>9015459306</v>
+      </c>
+      <c r="E376" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F376" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A377" s="10"/>
-      <c r="B377" s="10"/>
-      <c r="C377" s="10"/>
-      <c r="D377" s="10"/>
-      <c r="E377" s="10"/>
-      <c r="F377" s="65"/>
+      <c r="A377" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="B377" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="C377" s="35" t="s">
+        <v>988</v>
+      </c>
+      <c r="D377" s="10">
+        <v>9013194981</v>
+      </c>
+      <c r="E377" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F377" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A378" s="10"/>
-      <c r="B378" s="10"/>
+      <c r="A378" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>669</v>
+      </c>
       <c r="C378" s="10"/>
-      <c r="D378" s="10"/>
-      <c r="E378" s="10"/>
-      <c r="F378" s="65"/>
+      <c r="D378" s="10">
+        <v>6184203382</v>
+      </c>
+      <c r="E378" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F378" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A379" s="10"/>
-      <c r="B379" s="10"/>
-      <c r="C379" s="10"/>
-      <c r="D379" s="10"/>
-      <c r="E379" s="10"/>
-      <c r="F379" s="65"/>
+      <c r="A379" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="B379" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="C379" s="35" t="s">
+        <v>991</v>
+      </c>
+      <c r="D379" s="10">
+        <v>9013356904</v>
+      </c>
+      <c r="E379" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F379" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A380" s="10"/>
-      <c r="B380" s="10"/>
-      <c r="C380" s="10"/>
+      <c r="A380" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="B380" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C380" s="35" t="s">
+        <v>993</v>
+      </c>
       <c r="D380" s="10"/>
-      <c r="E380" s="10"/>
-      <c r="F380" s="65"/>
+      <c r="E380" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F380" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A381" s="10"/>
-      <c r="B381" s="10"/>
-      <c r="C381" s="10"/>
+      <c r="A381" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="B381" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="C381" s="35" t="s">
+        <v>996</v>
+      </c>
       <c r="D381" s="10"/>
-      <c r="E381" s="10"/>
-      <c r="F381" s="65"/>
+      <c r="E381" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F381" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A382" s="10"/>
-      <c r="B382" s="10"/>
-      <c r="C382" s="10"/>
+      <c r="A382" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="B382" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="C382" s="35" t="s">
+        <v>999</v>
+      </c>
       <c r="D382" s="10"/>
-      <c r="E382" s="10"/>
-      <c r="F382" s="65"/>
+      <c r="E382" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F382" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A383" s="10"/>
-      <c r="B383" s="10"/>
+      <c r="A383" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B383" s="10" t="s">
+        <v>1001</v>
+      </c>
       <c r="C383" s="10"/>
       <c r="D383" s="10"/>
-      <c r="E383" s="10"/>
-      <c r="F383" s="65"/>
+      <c r="E383" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F383" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A384" s="10"/>
-      <c r="B384" s="10"/>
-      <c r="C384" s="10"/>
+      <c r="A384" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B384" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C384" s="35" t="s">
+        <v>1004</v>
+      </c>
       <c r="D384" s="10"/>
-      <c r="E384" s="10"/>
-      <c r="F384" s="65"/>
+      <c r="E384" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F384" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A385" s="10"/>
-      <c r="B385" s="10"/>
-      <c r="C385" s="10"/>
+      <c r="A385" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B385" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C385" s="35" t="s">
+        <v>1007</v>
+      </c>
       <c r="D385" s="10"/>
-      <c r="E385" s="10"/>
-      <c r="F385" s="65"/>
+      <c r="E385" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F385" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A386" s="10"/>
-      <c r="B386" s="10"/>
-      <c r="C386" s="10"/>
+      <c r="A386" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B386" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C386" s="35" t="s">
+        <v>1010</v>
+      </c>
       <c r="D386" s="10"/>
-      <c r="E386" s="10"/>
-      <c r="F386" s="65"/>
+      <c r="E386" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F386" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A387" s="10"/>
-      <c r="B387" s="10"/>
-      <c r="C387" s="10"/>
+      <c r="A387" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B387" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C387" s="35" t="s">
+        <v>1013</v>
+      </c>
       <c r="D387" s="10"/>
-      <c r="E387" s="10"/>
-      <c r="F387" s="65"/>
+      <c r="E387" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F387" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A388" s="10"/>
-      <c r="B388" s="10"/>
+      <c r="A388" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B388" s="10" t="s">
+        <v>1015</v>
+      </c>
       <c r="C388" s="10"/>
       <c r="D388" s="10"/>
-      <c r="E388" s="10"/>
-      <c r="F388" s="65"/>
+      <c r="E388" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F388" s="10"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A389" s="10"/>
@@ -10954,6 +11303,22 @@
     <hyperlink ref="C367" r:id="rId115" display="mailto:ayerra973@gmail.com" xr:uid="{3DFCB515-CCF6-4582-984D-A64977A084CD}"/>
     <hyperlink ref="C368" r:id="rId116" display="mailto:pavannelluri777@gmail.com" xr:uid="{A4F3665B-3BD3-425A-87AF-E0C57C4A6224}"/>
     <hyperlink ref="C369" r:id="rId117" display="mailto:mohansaitinku123@gmail.com" xr:uid="{2FC7AB82-777D-46D1-90C2-78EA172CDA83}"/>
+    <hyperlink ref="C370" r:id="rId118" display="mailto:swarnaiitm@gmail.com" xr:uid="{3D3FEE4A-01E1-415F-B448-5B103DAFBEE5}"/>
+    <hyperlink ref="C371" r:id="rId119" display="mailto:abhi2242@gmail.com" xr:uid="{E3628E41-D183-4086-98BB-7A53912D3AED}"/>
+    <hyperlink ref="C372" r:id="rId120" display="mailto:balaram.rv@live.com" xr:uid="{BCAA0E46-96E5-41FD-A103-7B58B85BDAE3}"/>
+    <hyperlink ref="C373" r:id="rId121" display="mailto:sharanyay.j@gmail.com" xr:uid="{84F9712B-A280-407C-8BF8-F08E24FA908E}"/>
+    <hyperlink ref="C374" r:id="rId122" display="mailto:ellington@gmail.com" xr:uid="{3ADAA212-5F16-4DE2-A19F-25E26D75BD93}"/>
+    <hyperlink ref="C375" r:id="rId123" display="mailto:arvindrede@gmail.com" xr:uid="{821920B5-FE56-49CF-80BF-08EBB32C40EA}"/>
+    <hyperlink ref="C376" r:id="rId124" display="mailto:vamsi.satyavarapu@gmail.com" xr:uid="{B2BEB9C4-4F5B-46DA-B441-B5F44BD27D9E}"/>
+    <hyperlink ref="C377" r:id="rId125" display="mailto:jaggi75@gmail.com" xr:uid="{F43649A7-B914-4CF2-88BA-8695D3CBFC0B}"/>
+    <hyperlink ref="C379" r:id="rId126" display="mailto:sekar2ms@gmail.com" xr:uid="{97156CD7-0075-4F42-871A-F77F8E4263B4}"/>
+    <hyperlink ref="C380" r:id="rId127" display="mailto:purvicp@yahoo.com" xr:uid="{A5AB5258-0A70-4B2D-9AF1-50D9B5CBD432}"/>
+    <hyperlink ref="C381" r:id="rId128" display="mailto:ravsha.goenka@gmail.com" xr:uid="{7A43828F-23EC-4F05-8058-DDB06AF4116C}"/>
+    <hyperlink ref="C382" r:id="rId129" display="mailto:sukantachem@gmail.com" xr:uid="{D8E5FE1F-460D-46A8-B1DE-4BDD71B5A97D}"/>
+    <hyperlink ref="C384" r:id="rId130" display="mailto:Vanikudlur@yahoo.com" xr:uid="{4403ACCF-3F05-47D7-835C-149CA6E908E4}"/>
+    <hyperlink ref="C385" r:id="rId131" display="mailto:hemasiva36@gmail.com" xr:uid="{0E89A778-72D5-45C4-9F6E-1E08D4711190}"/>
+    <hyperlink ref="C386" r:id="rId132" display="mailto:vamsi.seeram@gmail.com" xr:uid="{3EB59814-ED67-4D78-8EE2-00E522DBB3AE}"/>
+    <hyperlink ref="C387" r:id="rId133" display="mailto:asmajiwani@gmail.com" xr:uid="{A6BE43AF-1166-41C0-A754-460B3DB179B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/MembershipData.xlsx
+++ b/src/assets/MembershipData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\tam-members\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrcgu\tam-members\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FC0C35-10A9-4821-9874-C3A04755854F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC815437-238B-422F-89C1-7A2BDBE075E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{1F51C348-A47B-4F17-A7FA-BEAAD77C1C4F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="1130">
   <si>
     <t xml:space="preserve">ABDUL </t>
   </si>
@@ -3334,6 +3334,87 @@
   </si>
   <si>
     <t>Kumon</t>
+  </si>
+  <si>
+    <t>Gastroenterology Medical Practice</t>
+  </si>
+  <si>
+    <t>Dr. Lakshmi K. Dasaree</t>
+  </si>
+  <si>
+    <t>Balaji Super Market</t>
+  </si>
+  <si>
+    <t>Hitesh</t>
+  </si>
+  <si>
+    <t>Memhis Indian Restaurant</t>
+  </si>
+  <si>
+    <t>Sudheer Kanchi</t>
+  </si>
+  <si>
+    <t>Atlas Bookkeeping INC</t>
+  </si>
+  <si>
+    <t>Dean ?</t>
+  </si>
+  <si>
+    <t>Collierville Taekwondo</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Dr Someshwara Reddy</t>
+  </si>
+  <si>
+    <t>RS Beauty Services</t>
+  </si>
+  <si>
+    <t>Durga</t>
+  </si>
+  <si>
+    <t>Vasundra Jewelers</t>
+  </si>
+  <si>
+    <t>Advanced Dental Implant and TMJ Center</t>
+  </si>
+  <si>
+    <t>Dr. Pradeep Adatrow</t>
+  </si>
+  <si>
+    <t>Memphis Cardiology</t>
+  </si>
+  <si>
+    <t>Dr. Kishore Arcot</t>
+  </si>
+  <si>
+    <t>Your Accounting Adivisor</t>
+  </si>
+  <si>
+    <t>Faheem Jiwani</t>
+  </si>
+  <si>
+    <t>Arkana Infotech</t>
+  </si>
+  <si>
+    <t>Sasya Akkinappalli</t>
+  </si>
+  <si>
+    <t>Cloudywing Technologies Inc</t>
+  </si>
+  <si>
+    <t>Nikhila Nallabollu</t>
+  </si>
+  <si>
+    <t>Comspark Technologies</t>
+  </si>
+  <si>
+    <t>Ramesh Basa</t>
+  </si>
+  <si>
+    <t>Princess Parker</t>
   </si>
 </sst>
 </file>
@@ -4104,10 +4185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3152D-0757-464D-9D51-AEB4CC777707}">
-  <dimension ref="A1:I443"/>
+  <dimension ref="A1:I458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="A389" sqref="A389:E443"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:B458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -11139,6 +11220,120 @@
       </c>
       <c r="E443" s="3" t="s">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A444" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A445" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A446" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A447" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A448" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A449" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A450" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A451" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A452" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A453" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A454" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A455" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A456" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A457" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A458" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1129</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/MembershipData.xlsx
+++ b/src/assets/MembershipData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrcgu\tam-members\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF86449-7345-4B65-BC03-D12ED097B3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE1BB13-633D-4454-A20F-2B159444B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{1F51C348-A47B-4F17-A7FA-BEAAD77C1C4F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="1261">
   <si>
     <t xml:space="preserve">ABDUL </t>
   </si>
@@ -813,9 +813,6 @@
     <t>ayerra973@gmail.com</t>
   </si>
   <si>
-    <t>Tummanapelly</t>
-  </si>
-  <si>
     <t>krishnatchary@gmail.com</t>
   </si>
   <si>
@@ -1774,12 +1771,6 @@
   </si>
   <si>
     <t>Sangem</t>
-  </si>
-  <si>
-    <t>Sarath</t>
-  </si>
-  <si>
-    <t>Kolagotla</t>
   </si>
   <si>
     <t>info4sarath@gmail.com</t>
@@ -3807,6 +3798,18 @@
   </si>
   <si>
     <t>Boggette</t>
+  </si>
+  <si>
+    <t>Rama</t>
+  </si>
+  <si>
+    <t>Mannem</t>
+  </si>
+  <si>
+    <t>Ravi kumar Reddy</t>
+  </si>
+  <si>
+    <t>Mamila</t>
   </si>
 </sst>
 </file>
@@ -4774,8 +4777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3152D-0757-464D-9D51-AEB4CC777707}">
   <dimension ref="A1:I511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="E454" sqref="E454:F454"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4825,7 +4828,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>109</v>
@@ -4842,16 +4845,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A3" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>3</v>
@@ -4862,19 +4865,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A4" s="27" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>36</v>
@@ -4882,33 +4885,33 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A5" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>523</v>
-      </c>
       <c r="C5" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A6" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="29" t="s">
         <v>339</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>340</v>
       </c>
       <c r="D6" s="33">
         <v>9016516150</v>
@@ -4922,13 +4925,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A7" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="C7" s="29" t="s">
         <v>567</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>568</v>
       </c>
       <c r="D7" s="33">
         <v>9082105447</v>
@@ -4942,13 +4945,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="C8" s="29" t="s">
         <v>279</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>280</v>
       </c>
       <c r="D8" s="33">
         <v>5103201177</v>
@@ -4977,21 +4980,21 @@
         <v>3</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" s="27" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>3</v>
@@ -5002,33 +5005,33 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A11" s="27" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A12" s="32" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D12" s="37">
         <v>9013182909</v>
@@ -5042,13 +5045,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A13" s="32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>478</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>479</v>
       </c>
       <c r="D13" s="37">
         <v>9012465603</v>
@@ -5068,13 +5071,13 @@
         <v>99</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>38</v>
@@ -5082,16 +5085,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A15" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>14</v>
@@ -5102,13 +5105,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A16" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>293</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>294</v>
       </c>
       <c r="D16" s="36">
         <v>2016852575</v>
@@ -5122,13 +5125,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="29" t="s">
         <v>314</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>315</v>
       </c>
       <c r="D17" s="37">
         <v>9726934743</v>
@@ -5151,13 +5154,13 @@
         <v>115</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.75">
@@ -5168,7 +5171,7 @@
         <v>114</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D19" s="39">
         <v>3135063997</v>
@@ -5182,13 +5185,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="C20" s="29" t="s">
         <v>304</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>305</v>
       </c>
       <c r="D20" s="30">
         <v>8183099380</v>
@@ -5202,16 +5205,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="C21" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>288</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>3</v>
@@ -5242,16 +5245,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="C23" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>521</v>
-      </c>
       <c r="D23" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>3</v>
@@ -5262,10 +5265,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C24" s="29"/>
       <c r="E24" s="35" t="s">
@@ -5289,21 +5292,21 @@
         <v>9018262562</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D26" s="30">
         <v>9016923537</v>
@@ -5312,21 +5315,21 @@
         <v>3</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>393</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>3</v>
@@ -5337,13 +5340,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" s="27" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D28" s="30">
         <v>6107035400</v>
@@ -5357,14 +5360,14 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C29" s="29"/>
       <c r="E29" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>38</v>
@@ -5372,13 +5375,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="C30" s="29" t="s">
         <v>455</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>456</v>
       </c>
       <c r="D30" s="7">
         <v>8573209293</v>
@@ -5392,16 +5395,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" s="27" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E31" s="36" t="s">
         <v>3</v>
@@ -5412,16 +5415,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A32" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>580</v>
-      </c>
       <c r="D32" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E32" s="46" t="s">
         <v>3</v>
@@ -5432,16 +5435,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A33" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="C33" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>274</v>
-      </c>
       <c r="D33" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E33" s="36" t="s">
         <v>3</v>
@@ -5452,19 +5455,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A34" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>608</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>611</v>
-      </c>
       <c r="C34" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>38</v>
@@ -5472,16 +5475,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A35" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B35" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="C35" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>277</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>3</v>
@@ -5512,19 +5515,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A37" s="27" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>36</v>
@@ -5532,13 +5535,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A38" s="27" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D38" s="37">
         <v>6097221201</v>
@@ -5552,19 +5555,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A39" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="C39" s="29" t="s">
         <v>511</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>512</v>
       </c>
       <c r="D39" s="39">
         <v>9018608256</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>37</v>
@@ -5572,36 +5575,36 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A40" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E40" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A41" s="14" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>3</v>
@@ -5612,22 +5615,22 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A42" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="C42" s="29" t="s">
         <v>360</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>361</v>
       </c>
       <c r="D42" s="37">
         <v>9018284219</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.75">
@@ -5641,7 +5644,7 @@
         <v>203</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>3</v>
@@ -5652,10 +5655,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A44" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C44" s="29"/>
       <c r="E44" s="28" t="s">
@@ -5667,13 +5670,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A45" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B45" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="C45" s="29" t="s">
         <v>452</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>453</v>
       </c>
       <c r="D45" s="30">
         <v>4433105003</v>
@@ -5687,17 +5690,17 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A46" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C46" s="29"/>
       <c r="E46" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.75">
@@ -5705,10 +5708,10 @@
         <v>257</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D47" s="3">
         <v>8132299950</v>
@@ -5722,13 +5725,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A48" s="47" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D48" s="48">
         <v>8607185376</v>
@@ -5737,21 +5740,21 @@
         <v>14</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A49" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E49" s="34" t="s">
         <v>14</v>
@@ -5762,13 +5765,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A50" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D50" s="39">
         <v>9014106813</v>
@@ -5788,10 +5791,10 @@
         <v>227</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E51" s="35" t="s">
         <v>14</v>
@@ -5808,24 +5811,24 @@
         <v>78</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E52" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A53" s="16" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C53" s="29"/>
       <c r="E53" s="34" t="s">
@@ -5852,21 +5855,21 @@
         <v>3</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A55" s="32" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>14</v>
@@ -5877,13 +5880,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A56" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E56" s="30" t="s">
         <v>3</v>
@@ -5914,13 +5917,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A58" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="B58" s="32" t="s">
         <v>751</v>
       </c>
-      <c r="B58" s="32" t="s">
-        <v>754</v>
-      </c>
       <c r="C58" s="29" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D58" s="30">
         <v>4792766087</v>
@@ -5963,10 +5966,10 @@
         <v>104</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F60" s="30" t="s">
         <v>38</v>
@@ -5974,13 +5977,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A61" s="32" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D61" s="50">
         <v>9016513084</v>
@@ -5994,13 +5997,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A62" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="B62" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="C62" s="29" t="s">
         <v>439</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>440</v>
       </c>
       <c r="D62" s="37">
         <v>9016561929</v>
@@ -6009,24 +6012,24 @@
         <v>14</v>
       </c>
       <c r="F62" s="40" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A63" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>320</v>
-      </c>
       <c r="C63" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>36</v>
@@ -6034,33 +6037,33 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A64" s="27" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C64" s="29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E64" s="30" t="s">
         <v>1104</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>1107</v>
-      </c>
       <c r="F64" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A65" s="27" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D65" s="30">
         <v>9014689687</v>
@@ -6074,19 +6077,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A66" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="C66" s="29" t="s">
         <v>317</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>318</v>
       </c>
       <c r="D66" s="37">
         <v>7195512311</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F66" s="37" t="s">
         <v>36</v>
@@ -6134,19 +6137,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A69" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B69" s="27" t="s">
         <v>106</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D69" s="30">
         <v>9016102021</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F69" s="30" t="s">
         <v>37</v>
@@ -6154,13 +6157,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A70" s="32" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D70" s="39">
         <v>9018280390</v>
@@ -6174,13 +6177,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A71" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="B71" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="C71" s="29" t="s">
         <v>327</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>328</v>
       </c>
       <c r="D71" s="7">
         <v>9015035459</v>
@@ -6194,13 +6197,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A72" s="27" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D72" s="30">
         <v>9013366583</v>
@@ -6209,18 +6212,18 @@
         <v>3</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A73" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="B73" s="27" t="s">
         <v>782</v>
       </c>
-      <c r="B73" s="27" t="s">
-        <v>785</v>
-      </c>
       <c r="C73" s="29" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D73" s="30">
         <v>9018601788</v>
@@ -6229,21 +6232,21 @@
         <v>14</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A74" s="27" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E74" s="35" t="s">
         <v>14</v>
@@ -6254,16 +6257,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A75" s="27" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>3</v>
@@ -6274,22 +6277,22 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A76" s="32" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E76" s="51" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="40" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.75">
@@ -6300,10 +6303,10 @@
         <v>167</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E77" s="34" t="s">
         <v>14</v>
@@ -6314,13 +6317,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A78" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="B78" s="27" t="s">
         <v>814</v>
       </c>
-      <c r="B78" s="27" t="s">
-        <v>817</v>
-      </c>
       <c r="C78" s="29" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D78" s="30">
         <v>9014943249</v>
@@ -6334,13 +6337,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A79" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B79" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="C79" s="29" t="s">
         <v>527</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>528</v>
       </c>
       <c r="D79" s="10">
         <v>9014686562</v>
@@ -6354,14 +6357,14 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A80" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C80" s="29"/>
       <c r="E80" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>36</v>
@@ -6369,10 +6372,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A81" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C81" s="29"/>
       <c r="E81" s="30" t="s">
@@ -6384,62 +6387,62 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A82" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="B82" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="C82" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="C82" s="29" t="s">
-        <v>531</v>
-      </c>
       <c r="D82" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E82" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A83" s="27" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E83" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F83" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A84" s="27" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C84" s="29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D84" s="52" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E84" s="30" t="s">
         <v>1104</v>
       </c>
-      <c r="D84" s="52" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>1107</v>
-      </c>
       <c r="F84" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.75">
@@ -6450,10 +6453,10 @@
         <v>13</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E85" s="35" t="s">
         <v>14</v>
@@ -6464,19 +6467,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A86" s="32" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F86" s="30" t="s">
         <v>38</v>
@@ -6493,7 +6496,7 @@
         <v>137</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>3</v>
@@ -6504,13 +6507,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A88" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="B88" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="C88" s="29" t="s">
         <v>442</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>443</v>
       </c>
       <c r="D88" s="33">
         <v>9898540894</v>
@@ -6524,16 +6527,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A89" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="B89" s="32" t="s">
         <v>555</v>
       </c>
-      <c r="B89" s="32" t="s">
-        <v>556</v>
-      </c>
       <c r="C89" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E89" s="39" t="s">
         <v>3</v>
@@ -6544,19 +6547,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A90" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="B90" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="C90" s="29" t="s">
         <v>436</v>
-      </c>
-      <c r="C90" s="29" t="s">
-        <v>437</v>
       </c>
       <c r="D90" s="7">
         <v>9014912546</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F90" s="30" t="s">
         <v>36</v>
@@ -6564,13 +6567,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A91" s="3" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D91" s="3">
         <v>3133104009</v>
@@ -6584,16 +6587,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A92" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B92" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="B92" s="27" t="s">
+      <c r="C92" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="C92" s="29" t="s">
-        <v>351</v>
-      </c>
       <c r="D92" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E92" s="35" t="s">
         <v>14</v>
@@ -6624,16 +6627,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A94" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="B94" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="B94" s="27" t="s">
-        <v>533</v>
-      </c>
       <c r="C94" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E94" s="35" t="s">
         <v>14</v>
@@ -6644,16 +6647,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A95" s="32" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E95" s="35" t="s">
         <v>14</v>
@@ -6664,13 +6667,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A96" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="29" t="s">
         <v>484</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>485</v>
       </c>
       <c r="D96" s="3">
         <v>9018010659</v>
@@ -6704,16 +6707,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A98" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B98" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="B98" s="27" t="s">
-        <v>401</v>
-      </c>
       <c r="C98" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E98" s="33" t="s">
         <v>3</v>
@@ -6724,16 +6727,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A99" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="C99" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="C99" s="29" t="s">
-        <v>346</v>
-      </c>
       <c r="D99" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>3</v>
@@ -6744,13 +6747,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A100" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="B100" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="C100" s="29" t="s">
         <v>406</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>407</v>
       </c>
       <c r="D100" s="36">
         <v>2673063597</v>
@@ -6784,16 +6787,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A102" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="B102" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="C102" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="C102" s="29" t="s">
-        <v>546</v>
-      </c>
       <c r="D102" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E102" s="46" t="s">
         <v>3</v>
@@ -6804,16 +6807,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A103" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="B103" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="C103" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="D103" s="19" t="s">
         <v>542</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>543</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>3</v>
@@ -6824,16 +6827,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A104" s="27" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E104" s="36" t="s">
         <v>3</v>
@@ -6844,10 +6847,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A105" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C105" s="29"/>
       <c r="E105" s="30" t="s">
@@ -6859,10 +6862,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A106" s="20" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C106" s="29"/>
       <c r="E106" s="28" t="s">
@@ -6874,10 +6877,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A107" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C107" s="29"/>
       <c r="E107" s="30" t="s">
@@ -6889,14 +6892,14 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A108" s="3" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C108" s="29"/>
       <c r="E108" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>36</v>
@@ -6904,13 +6907,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A109" s="15" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D109" s="30">
         <v>2292961363</v>
@@ -6924,19 +6927,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A110" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="B110" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="B110" s="27" t="s">
+      <c r="C110" s="29" t="s">
         <v>487</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>488</v>
       </c>
       <c r="D110" s="30">
         <v>9134441071</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F110" s="30" t="s">
         <v>37</v>
@@ -6944,16 +6947,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A111" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="B111" s="32" t="s">
         <v>646</v>
       </c>
-      <c r="B111" s="32" t="s">
-        <v>649</v>
-      </c>
       <c r="C111" s="29" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E111" s="36" t="s">
         <v>3</v>
@@ -6973,7 +6976,7 @@
         <v>112</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E112" s="18" t="s">
         <v>3</v>
@@ -6984,13 +6987,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A113" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="B113" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B113" s="32" t="s">
+      <c r="C113" s="29" t="s">
         <v>395</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>396</v>
       </c>
       <c r="D113" s="30">
         <v>9017916717</v>
@@ -6999,21 +7002,21 @@
         <v>14</v>
       </c>
       <c r="F113" s="40" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A114" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B114" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="B114" s="27" t="s">
+      <c r="C114" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="C114" s="29" t="s">
-        <v>266</v>
-      </c>
       <c r="D114" s="17" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E114" s="30" t="s">
         <v>3</v>
@@ -7024,13 +7027,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A115" s="32" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D115" s="30">
         <v>2017746474</v>
@@ -7044,19 +7047,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A116" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B116" s="27" t="s">
+      <c r="C116" s="29" t="s">
         <v>324</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>325</v>
       </c>
       <c r="D116" s="17">
         <v>9016774431</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F116" s="30" t="s">
         <v>36</v>
@@ -7064,13 +7067,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A117" s="32" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D117" s="30">
         <v>9174421560</v>
@@ -7084,16 +7087,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A118" s="14" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>3</v>
@@ -7104,51 +7107,51 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A119" s="14" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A120" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="C120" s="29"/>
       <c r="E120" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A121" s="32" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E121" s="36" t="s">
         <v>3</v>
@@ -7159,16 +7162,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A122" s="32" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E122" s="36" t="s">
         <v>3</v>
@@ -7188,7 +7191,7 @@
         <v>50</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E123" s="36" t="s">
         <v>3</v>
@@ -7199,16 +7202,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A124" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B124" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="B124" s="27" t="s">
-        <v>355</v>
-      </c>
       <c r="C124" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D124" s="52" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E124" s="37" t="s">
         <v>3</v>
@@ -7219,16 +7222,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A125" s="27" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E125" s="30" t="s">
         <v>3</v>
@@ -7239,13 +7242,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A126" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="B126" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="C126" s="29" t="s">
         <v>336</v>
-      </c>
-      <c r="C126" s="29" t="s">
-        <v>337</v>
       </c>
       <c r="D126" s="39">
         <v>3462199184</v>
@@ -7259,13 +7262,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A127" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="B127" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="C127" s="29" t="s">
         <v>481</v>
-      </c>
-      <c r="C127" s="29" t="s">
-        <v>482</v>
       </c>
       <c r="D127" s="30">
         <v>2489542414</v>
@@ -7279,13 +7282,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A128" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="B128" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="B128" s="32" t="s">
+      <c r="C128" s="29" t="s">
         <v>490</v>
-      </c>
-      <c r="C128" s="29" t="s">
-        <v>491</v>
       </c>
       <c r="D128" s="39">
         <v>6512061279</v>
@@ -7308,7 +7311,7 @@
         <v>140</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E129" s="17" t="s">
         <v>3</v>
@@ -7319,13 +7322,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A130" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B130" s="32" t="s">
         <v>139</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D130" s="30">
         <v>9018497229</v>
@@ -7339,19 +7342,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A131" s="27" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F131" s="30" t="s">
         <v>37</v>
@@ -7359,13 +7362,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A132" s="27" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D132" s="30">
         <v>3523463890</v>
@@ -7379,14 +7382,14 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A133" s="3" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C133" s="29"/>
       <c r="E133" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>36</v>
@@ -7394,16 +7397,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A134" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="B134" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="B134" s="27" t="s">
+      <c r="C134" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="C134" s="29" t="s">
-        <v>536</v>
-      </c>
       <c r="D134" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E134" s="35" t="s">
         <v>14</v>
@@ -7434,16 +7437,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A136" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B136" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="C136" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="C136" s="29" t="s">
-        <v>498</v>
-      </c>
       <c r="D136" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E136" s="36" t="s">
         <v>3</v>
@@ -7454,22 +7457,22 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A137" s="27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E137" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F137" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.75">
@@ -7477,16 +7480,16 @@
         <v>163</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F138" s="30" t="s">
         <v>38</v>
@@ -7494,13 +7497,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A139" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C139" s="29" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D139" s="3">
         <v>6306968371</v>
@@ -7523,13 +7526,13 @@
         <v>185</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E140" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.75">
@@ -7543,7 +7546,7 @@
         <v>179</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E141" s="18" t="s">
         <v>3</v>
@@ -7554,13 +7557,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A142" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="B142" s="27" t="s">
         <v>727</v>
       </c>
-      <c r="B142" s="27" t="s">
-        <v>730</v>
-      </c>
       <c r="C142" s="29" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D142" s="7">
         <v>9015671292</v>
@@ -7569,18 +7572,18 @@
         <v>3</v>
       </c>
       <c r="F142" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A143" s="27" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D143" s="19">
         <v>9015183994</v>
@@ -7606,7 +7609,7 @@
         <v>9062759287</v>
       </c>
       <c r="E144" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F144" s="30" t="s">
         <v>38</v>
@@ -7634,33 +7637,33 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A146" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B146" s="27" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E146" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F146" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A147" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C147" s="29" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D147" s="30">
         <v>9452788304</v>
@@ -7674,13 +7677,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A148" s="27" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B148" s="27" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C148" s="29" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D148" s="45">
         <v>2012183928</v>
@@ -7694,16 +7697,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A149" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B149" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B149" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="C149" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E149" s="36" t="s">
         <v>3</v>
@@ -7714,16 +7717,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A150" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B150" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="C150" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="C150" s="29" t="s">
-        <v>415</v>
-      </c>
       <c r="D150" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E150" s="36" t="s">
         <v>3</v>
@@ -7734,13 +7737,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A151" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B151" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="B151" s="32" t="s">
+      <c r="C151" s="29" t="s">
         <v>412</v>
-      </c>
-      <c r="C151" s="29" t="s">
-        <v>413</v>
       </c>
       <c r="D151" s="36">
         <v>9014574580</v>
@@ -7754,16 +7757,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A152" s="15" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E152" s="17" t="s">
         <v>3</v>
@@ -7774,16 +7777,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A153" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D153" s="52" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E153" s="36" t="s">
         <v>3</v>
@@ -7794,13 +7797,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A154" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="B154" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="B154" s="27" t="s">
+      <c r="C154" s="29" t="s">
         <v>553</v>
-      </c>
-      <c r="C154" s="29" t="s">
-        <v>554</v>
       </c>
       <c r="D154" s="30">
         <v>4085053631</v>
@@ -7814,13 +7817,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A155" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B155" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="C155" s="29" t="s">
         <v>433</v>
-      </c>
-      <c r="C155" s="29" t="s">
-        <v>434</v>
       </c>
       <c r="D155" s="37">
         <v>2244328618</v>
@@ -7843,7 +7846,7 @@
         <v>173</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E156" s="30" t="s">
         <v>3</v>
@@ -7869,27 +7872,27 @@
         <v>14</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A158" s="27" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D158" s="17">
         <v>9016109507</v>
       </c>
       <c r="E158" s="30" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F158" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.75">
@@ -7914,13 +7917,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A160" s="8" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E160" s="34" t="s">
         <v>14</v>
@@ -7931,13 +7934,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A161" s="32" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B161" s="32" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C161" s="29" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D161" s="33">
         <v>7347408954</v>
@@ -7954,10 +7957,10 @@
         <v>163</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E162" s="30" t="s">
         <v>3</v>
@@ -7974,30 +7977,30 @@
         <v>165</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E163" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F163" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A164" s="27" t="s">
-        <v>583</v>
+        <v>1257</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>584</v>
+        <v>1258</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D164" s="30">
-        <v>9016569090</v>
+        <v>5713736416</v>
       </c>
       <c r="E164" s="45" t="s">
         <v>3</v>
@@ -8008,13 +8011,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A165" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B165" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="B165" s="27" t="s">
+      <c r="C165" s="29" t="s">
         <v>379</v>
-      </c>
-      <c r="C165" s="29" t="s">
-        <v>380</v>
       </c>
       <c r="D165" s="33">
         <v>3306715187</v>
@@ -8028,16 +8031,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A166" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="B166" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="B166" s="27" t="s">
-        <v>548</v>
-      </c>
       <c r="C166" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E166" s="17" t="s">
         <v>3</v>
@@ -8048,13 +8051,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A167" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="B167" s="49" t="s">
         <v>499</v>
       </c>
-      <c r="B167" s="49" t="s">
+      <c r="C167" s="29" t="s">
         <v>500</v>
-      </c>
-      <c r="C167" s="29" t="s">
-        <v>501</v>
       </c>
       <c r="D167" s="33">
         <v>9018608739</v>
@@ -8068,19 +8071,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A168" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D168" s="3">
         <v>4254696275</v>
       </c>
       <c r="E168" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>37</v>
@@ -8088,19 +8091,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A169" s="15" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C169" s="29" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F169" s="30" t="s">
         <v>38</v>
@@ -8108,16 +8111,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A170" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B170" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="C170" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="C170" s="29" t="s">
-        <v>461</v>
-      </c>
       <c r="D170" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E170" s="35" t="s">
         <v>14</v>
@@ -8131,16 +8134,16 @@
         <v>226</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D171" s="3">
         <v>3177039916</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>36</v>
@@ -8148,22 +8151,22 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A172" s="27" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C172" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D172" s="52" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>3</v>
       </c>
       <c r="F172" s="39" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.75">
@@ -8177,7 +8180,7 @@
         <v>191</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E173" s="30" t="s">
         <v>3</v>
@@ -8188,13 +8191,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A174" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="B174" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="B174" s="32" t="s">
+      <c r="C174" s="29" t="s">
         <v>458</v>
-      </c>
-      <c r="C174" s="29" t="s">
-        <v>459</v>
       </c>
       <c r="D174" s="39">
         <v>9014468281</v>
@@ -8217,7 +8220,7 @@
         <v>52</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>3</v>
@@ -8228,13 +8231,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A176" s="27" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D176" s="30">
         <v>9014094813</v>
@@ -8243,21 +8246,21 @@
         <v>14</v>
       </c>
       <c r="F176" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A177" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="B177" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="B177" s="32" t="s">
-        <v>348</v>
-      </c>
       <c r="C177" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E177" s="36" t="s">
         <v>3</v>
@@ -8277,7 +8280,7 @@
         <v>57</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E178" s="46" t="s">
         <v>3</v>
@@ -8300,7 +8303,7 @@
         <v>9016183161</v>
       </c>
       <c r="E179" s="55" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F179" s="30" t="s">
         <v>38</v>
@@ -8308,16 +8311,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A180" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="B180" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="B180" s="27" t="s">
+      <c r="C180" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="C180" s="29" t="s">
-        <v>308</v>
-      </c>
       <c r="D180" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>3</v>
@@ -8328,19 +8331,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A181" s="3" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D181" s="3">
         <v>4056125011</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>37</v>
@@ -8348,16 +8351,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A182" s="14" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>3</v>
@@ -8368,19 +8371,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A183" s="28" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B183" s="28" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C183" s="29" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>37</v>
@@ -8388,39 +8391,39 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A184" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="B184" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="C184" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="C184" s="29" t="s">
-        <v>428</v>
-      </c>
       <c r="D184" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E184" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F184" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A185" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B185" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="C185" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="C185" s="29" t="s">
-        <v>425</v>
-      </c>
       <c r="D185" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F185" s="30" t="s">
         <v>38</v>
@@ -8428,16 +8431,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A186" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E186" s="34" t="s">
         <v>14</v>
@@ -8457,10 +8460,10 @@
         <v>54</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F187" s="30" t="s">
         <v>37</v>
@@ -8483,47 +8486,47 @@
         <v>3</v>
       </c>
       <c r="F188" s="39" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A189" s="27" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C189" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E189" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F189" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A190" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B190" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="C190" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="C190" s="29" t="s">
-        <v>559</v>
-      </c>
       <c r="D190" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E190" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F190" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.75">
@@ -8548,16 +8551,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A192" s="15" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C192" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E192" s="7" t="s">
         <v>3</v>
@@ -8588,16 +8591,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A194" s="32" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B194" s="32" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D194" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E194" s="35" t="s">
         <v>14</v>
@@ -8608,13 +8611,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A195" s="27" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D195" s="30">
         <v>9734528251</v>
@@ -8643,21 +8646,21 @@
         <v>14</v>
       </c>
       <c r="F196" s="33" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A197" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B197" s="32" t="s">
         <v>125</v>
       </c>
       <c r="C197" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D197" s="52" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E197" s="39" t="s">
         <v>3</v>
@@ -8683,18 +8686,18 @@
         <v>14</v>
       </c>
       <c r="F198" s="40" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A199" s="32" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B199" s="32" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C199" s="29" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D199" s="39">
         <v>5512635799</v>
@@ -8703,18 +8706,18 @@
         <v>14</v>
       </c>
       <c r="F199" s="39" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A200" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="B200" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="B200" s="27" t="s">
-        <v>844</v>
-      </c>
       <c r="C200" s="29" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D200" s="30">
         <v>9016512460</v>
@@ -8723,18 +8726,18 @@
         <v>14</v>
       </c>
       <c r="F200" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A201" s="32" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B201" s="32" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C201" s="29" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D201" s="39">
         <v>9019075978</v>
@@ -8754,30 +8757,30 @@
         <v>83</v>
       </c>
       <c r="C202" s="29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D202" s="52" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E202" s="30" t="s">
         <v>1104</v>
       </c>
-      <c r="D202" s="52" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E202" s="30" t="s">
-        <v>1107</v>
-      </c>
       <c r="F202" s="33" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A203" s="27" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C203" s="29" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E203" s="30" t="s">
         <v>3</v>
@@ -8806,13 +8809,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A205" s="28" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C205" s="29" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E205" s="28" t="s">
         <v>3</v>
@@ -8823,13 +8826,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A206" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="B206" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="B206" s="32" t="s">
-        <v>493</v>
-      </c>
       <c r="C206" s="29" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D206" s="30">
         <v>9018717262</v>
@@ -8843,16 +8846,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A207" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="B207" s="32" t="s">
         <v>732</v>
       </c>
-      <c r="B207" s="32" t="s">
-        <v>735</v>
-      </c>
       <c r="C207" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D207" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E207" s="34" t="s">
         <v>14</v>
@@ -8863,13 +8866,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A208" s="32" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B208" s="32" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C208" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D208" s="48">
         <v>9014688754</v>
@@ -8883,19 +8886,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A209" s="27" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D209" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E209" s="30" t="s">
         <v>1104</v>
-      </c>
-      <c r="E209" s="30" t="s">
-        <v>1107</v>
       </c>
       <c r="F209" s="30" t="s">
         <v>38</v>
@@ -8923,53 +8926,53 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A211" s="3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C211" s="29" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D211" s="3">
         <v>5158173360</v>
       </c>
       <c r="E211" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A212" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B212" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="B212" s="14" t="s">
-        <v>573</v>
-      </c>
       <c r="C212" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D212" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E212" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F212" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A213" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="B213" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="B213" s="32" t="s">
+      <c r="C213" s="29" t="s">
         <v>374</v>
-      </c>
-      <c r="C213" s="29" t="s">
-        <v>375</v>
       </c>
       <c r="D213" s="45">
         <v>6624086135</v>
@@ -8992,7 +8995,7 @@
         <v>92</v>
       </c>
       <c r="D214" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E214" s="36" t="s">
         <v>3</v>
@@ -9003,16 +9006,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A215" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B215" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="B215" s="32" t="s">
-        <v>353</v>
-      </c>
       <c r="C215" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D215" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E215" s="35" t="s">
         <v>14</v>
@@ -9023,13 +9026,13 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A216" s="32" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B216" s="32" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C216" s="29" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D216" s="37">
         <v>9012301245</v>
@@ -9063,19 +9066,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A218" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="B218" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="B218" s="27" t="s">
+      <c r="C218" s="29" t="s">
         <v>290</v>
-      </c>
-      <c r="C218" s="29" t="s">
-        <v>291</v>
       </c>
       <c r="D218" s="39">
         <v>9016995655</v>
       </c>
       <c r="E218" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F218" s="39" t="s">
         <v>36</v>
@@ -9103,13 +9106,13 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A220" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="B220" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="C220" s="29" t="s">
         <v>837</v>
-      </c>
-      <c r="B220" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="C220" s="29" t="s">
-        <v>840</v>
       </c>
       <c r="D220" s="30">
         <v>2407010047</v>
@@ -9123,19 +9126,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A221" s="27" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B221" s="27" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C221" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D221" s="7">
         <v>9013196315</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F221" s="30" t="s">
         <v>36</v>
@@ -9143,34 +9146,34 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A222" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="B222" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="B222" s="27" t="s">
+      <c r="C222" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="C222" s="29" t="s">
-        <v>399</v>
-      </c>
       <c r="D222" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E222" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A223" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C223" s="29"/>
       <c r="E223" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>36</v>
@@ -9178,19 +9181,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A224" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B224" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C224" s="29" t="s">
         <v>382</v>
-      </c>
-      <c r="C224" s="29" t="s">
-        <v>383</v>
       </c>
       <c r="D224" s="17">
         <v>9894082438</v>
       </c>
       <c r="E224" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F224" s="17" t="s">
         <v>36</v>
@@ -9218,13 +9221,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A226" s="27" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B226" s="27" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C226" s="29" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D226" s="17">
         <v>2014691473</v>
@@ -9238,13 +9241,13 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A227" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="B227" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="B227" s="27" t="s">
-        <v>377</v>
-      </c>
       <c r="C227" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D227" s="30">
         <v>9013264498</v>
@@ -9253,18 +9256,18 @@
         <v>3</v>
       </c>
       <c r="F227" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A228" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="B228" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C228" s="29" t="s">
         <v>720</v>
-      </c>
-      <c r="B228" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="C228" s="29" t="s">
-        <v>723</v>
       </c>
       <c r="D228" s="17">
         <v>2243580920</v>
@@ -9278,16 +9281,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A229" s="3" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C229" s="29" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>36</v>
@@ -9295,13 +9298,13 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A230" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B230" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C230" s="29" t="s">
         <v>295</v>
-      </c>
-      <c r="C230" s="29" t="s">
-        <v>296</v>
       </c>
       <c r="D230" s="33">
         <v>9014066666</v>
@@ -9310,18 +9313,18 @@
         <v>14</v>
       </c>
       <c r="F230" s="33" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A231" s="27" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B231" s="27" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C231" s="29" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D231" s="33">
         <v>9014120867</v>
@@ -9330,18 +9333,18 @@
         <v>14</v>
       </c>
       <c r="F231" s="33" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A232" s="32" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B232" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D232" s="39">
         <v>9012830473</v>
@@ -9355,19 +9358,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A233" s="27" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B233" s="27" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C233" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D233" s="17">
         <v>9018274467</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F233" s="30" t="s">
         <v>36</v>
@@ -9395,37 +9398,37 @@
     </row>
     <row r="235" spans="1:6" ht="26.75" x14ac:dyDescent="0.75">
       <c r="A235" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B235" s="14" t="s">
         <v>321</v>
-      </c>
-      <c r="B235" s="14" t="s">
-        <v>322</v>
       </c>
       <c r="C235" s="29"/>
       <c r="D235" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E235" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F235" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A236" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="B236" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C236" s="29" t="s">
         <v>365</v>
-      </c>
-      <c r="B236" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C236" s="29" t="s">
-        <v>366</v>
       </c>
       <c r="D236" s="33">
         <v>9016459299</v>
       </c>
       <c r="E236" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F236" s="33" t="s">
         <v>37</v>
@@ -9433,13 +9436,13 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A237" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="B237" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C237" s="29" t="s">
         <v>386</v>
-      </c>
-      <c r="B237" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C237" s="29" t="s">
-        <v>387</v>
       </c>
       <c r="D237" s="39">
         <v>9012832479</v>
@@ -9462,27 +9465,27 @@
         <v>66</v>
       </c>
       <c r="D238" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E238" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F238" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A239" s="27" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B239" s="27" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D239" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E239" s="35" t="s">
         <v>14</v>
@@ -9499,10 +9502,10 @@
         <v>101</v>
       </c>
       <c r="C240" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D240" s="52" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E240" s="37" t="s">
         <v>3</v>
@@ -9513,13 +9516,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A241" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="B241" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="B241" s="27" t="s">
+      <c r="C241" s="29" t="s">
         <v>514</v>
-      </c>
-      <c r="C241" s="29" t="s">
-        <v>515</v>
       </c>
       <c r="D241" s="39">
         <v>9016124576</v>
@@ -9553,33 +9556,33 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A243" s="27" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B243" s="27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C243" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D243" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E243" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F243" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A244" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="B244" s="32" t="s">
         <v>524</v>
       </c>
-      <c r="B244" s="32" t="s">
+      <c r="C244" s="29" t="s">
         <v>525</v>
-      </c>
-      <c r="C244" s="29" t="s">
-        <v>526</v>
       </c>
       <c r="D244" s="36">
         <v>9013357988</v>
@@ -9593,16 +9596,16 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A245" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B245" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="B245" s="13" t="s">
+      <c r="C245" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="C245" s="29" t="s">
-        <v>369</v>
-      </c>
       <c r="D245" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E245" s="46" t="s">
         <v>3</v>
@@ -9622,7 +9625,7 @@
         <v>159</v>
       </c>
       <c r="D246" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E246" s="7" t="s">
         <v>3</v>
@@ -9653,13 +9656,13 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A248" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="B248" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="B248" s="27" t="s">
+      <c r="C248" s="29" t="s">
         <v>357</v>
-      </c>
-      <c r="C248" s="29" t="s">
-        <v>358</v>
       </c>
       <c r="D248" s="30">
         <v>7203453285</v>
@@ -9668,18 +9671,18 @@
         <v>14</v>
       </c>
       <c r="F248" s="40" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A249" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B249" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B249" s="33" t="s">
+      <c r="C249" s="29" t="s">
         <v>270</v>
-      </c>
-      <c r="C249" s="29" t="s">
-        <v>271</v>
       </c>
       <c r="D249" s="33">
         <v>9016090258</v>
@@ -9708,18 +9711,18 @@
         <v>3</v>
       </c>
       <c r="F250" s="33" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A251" s="27" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B251" s="27" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C251" s="29" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D251" s="36">
         <v>4088937553</v>
@@ -9733,16 +9736,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A252" s="27" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B252" s="27" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C252" s="29" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D252" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E252" s="34" t="s">
         <v>14</v>
@@ -9773,13 +9776,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A254" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C254" s="29" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E254" s="30" t="s">
         <v>3</v>
@@ -9790,19 +9793,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A255" s="21" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C255" s="29" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D255" s="17">
         <v>2177616526</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F255" s="17" t="s">
         <v>38</v>
@@ -9816,27 +9819,27 @@
         <v>134</v>
       </c>
       <c r="C256" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D256" s="52" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E256" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F256" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A257" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C257" s="29" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D257" s="3">
         <v>8144230976</v>
@@ -9850,13 +9853,13 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A258" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="B258" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="B258" s="27" t="s">
+      <c r="C258" s="29" t="s">
         <v>508</v>
-      </c>
-      <c r="C258" s="29" t="s">
-        <v>509</v>
       </c>
       <c r="D258" s="36">
         <v>9016598359</v>
@@ -9870,13 +9873,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A259" s="32" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B259" s="32" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C259" s="29" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D259" s="39">
         <v>5189158066</v>
@@ -9890,16 +9893,16 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A260" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="B260" s="27" t="s">
         <v>670</v>
       </c>
-      <c r="B260" s="27" t="s">
-        <v>673</v>
-      </c>
       <c r="C260" s="29" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D260" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E260" s="36" t="s">
         <v>3</v>
@@ -9910,10 +9913,10 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A261" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C261" s="29"/>
       <c r="E261" s="30" t="s">
@@ -9934,13 +9937,13 @@
         <v>207</v>
       </c>
       <c r="D262" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E262" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F262" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.75">
@@ -9954,7 +9957,7 @@
         <v>219</v>
       </c>
       <c r="D263" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E263" s="18" t="s">
         <v>3</v>
@@ -9965,16 +9968,16 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A264" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B264" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="B264" s="15" t="s">
+      <c r="C264" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="C264" s="29" t="s">
-        <v>464</v>
-      </c>
       <c r="D264" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E264" s="36" t="s">
         <v>3</v>
@@ -9994,7 +9997,7 @@
         <v>89</v>
       </c>
       <c r="D265" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E265" s="12" t="s">
         <v>3</v>
@@ -10025,13 +10028,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A267" s="41" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B267" s="41" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C267" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D267" s="57">
         <v>9015177692</v>
@@ -10051,10 +10054,10 @@
         <v>70</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E268" s="30" t="s">
         <v>3</v>
@@ -10065,13 +10068,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A269" s="27" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B269" s="27" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C269" s="29" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D269" s="30">
         <v>2019697241</v>
@@ -10085,13 +10088,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A270" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B270" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="B270" s="32" t="s">
+      <c r="C270" s="29" t="s">
         <v>342</v>
-      </c>
-      <c r="C270" s="29" t="s">
-        <v>343</v>
       </c>
       <c r="D270" s="33">
         <v>9014841114</v>
@@ -10105,16 +10108,16 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A271" s="27" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B271" s="27" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C271" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D271" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E271" s="30" t="s">
         <v>3</v>
@@ -10125,13 +10128,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A272" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="B272" s="32" t="s">
         <v>516</v>
       </c>
-      <c r="B272" s="32" t="s">
+      <c r="C272" s="29" t="s">
         <v>517</v>
-      </c>
-      <c r="C272" s="29" t="s">
-        <v>518</v>
       </c>
       <c r="D272" s="39">
         <v>9018967333</v>
@@ -10145,13 +10148,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A273" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B273" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="B273" s="32" t="s">
+      <c r="C273" s="29" t="s">
         <v>298</v>
-      </c>
-      <c r="C273" s="29" t="s">
-        <v>299</v>
       </c>
       <c r="D273" s="36">
         <v>5133754414</v>
@@ -10165,13 +10168,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A274" s="32" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B274" s="32" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C274" s="29" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D274" s="50">
         <v>8622139394</v>
@@ -10185,16 +10188,16 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A275" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="B275" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="B275" s="27" t="s">
-        <v>468</v>
-      </c>
       <c r="C275" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D275" s="19" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E275" s="30" t="s">
         <v>3</v>
@@ -10205,19 +10208,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A276" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="B276" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="B276" s="13" t="s">
+      <c r="C276" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="C276" s="29" t="s">
-        <v>576</v>
-      </c>
       <c r="D276" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F276" s="30" t="s">
         <v>36</v>
@@ -10225,16 +10228,16 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A277" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="B277" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="B277" s="32" t="s">
+      <c r="C277" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="C277" s="29" t="s">
-        <v>364</v>
-      </c>
       <c r="D277" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E277" s="36" t="s">
         <v>3</v>
@@ -10257,7 +10260,7 @@
         <v>9014711009</v>
       </c>
       <c r="E278" s="30" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F278" s="39" t="s">
         <v>38</v>
@@ -10265,19 +10268,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A279" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="B279" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="B279" s="27" t="s">
+      <c r="C279" s="29" t="s">
         <v>421</v>
-      </c>
-      <c r="C279" s="29" t="s">
-        <v>422</v>
       </c>
       <c r="D279" s="7">
         <v>9062990350</v>
       </c>
       <c r="E279" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F279" s="30" t="s">
         <v>38</v>
@@ -10285,19 +10288,19 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A280" s="13" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C280" s="29" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D280" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F280" s="30" t="s">
         <v>36</v>
@@ -10305,16 +10308,16 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A281" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="B281" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="B281" s="27" t="s">
-        <v>582</v>
-      </c>
       <c r="C281" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D281" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E281" s="17" t="s">
         <v>3</v>
@@ -10337,7 +10340,7 @@
         <v>9014134065</v>
       </c>
       <c r="E282" s="30" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F282" s="39" t="s">
         <v>38</v>
@@ -10345,13 +10348,13 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A283" s="27" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B283" s="27" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C283" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D283" s="36">
         <v>2673941741</v>
@@ -10365,19 +10368,19 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A284" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="B284" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="B284" s="32" t="s">
+      <c r="C284" s="29" t="s">
         <v>476</v>
-      </c>
-      <c r="C284" s="29" t="s">
-        <v>477</v>
       </c>
       <c r="D284" s="39">
         <v>9013351157</v>
       </c>
       <c r="E284" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F284" s="39" t="s">
         <v>38</v>
@@ -10385,13 +10388,13 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A285" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="B285" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="B285" s="27" t="s">
+      <c r="C285" s="29" t="s">
         <v>330</v>
-      </c>
-      <c r="C285" s="29" t="s">
-        <v>331</v>
       </c>
       <c r="D285" s="33">
         <v>5519980093</v>
@@ -10414,7 +10417,7 @@
         <v>216</v>
       </c>
       <c r="D286" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E286" s="36" t="s">
         <v>3</v>
@@ -10425,16 +10428,16 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A287" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="B287" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="B287" s="32" t="s">
+      <c r="C287" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="C287" s="29" t="s">
-        <v>448</v>
-      </c>
       <c r="D287" s="52" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E287" s="39" t="s">
         <v>3</v>
@@ -10445,13 +10448,13 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A288" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="B288" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="B288" s="32" t="s">
+      <c r="C288" s="29" t="s">
         <v>503</v>
-      </c>
-      <c r="C288" s="29" t="s">
-        <v>504</v>
       </c>
       <c r="D288" s="33">
         <v>9014146688</v>
@@ -10465,13 +10468,13 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A289" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="B289" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="B289" s="27" t="s">
+      <c r="C289" s="29" t="s">
         <v>333</v>
-      </c>
-      <c r="C289" s="29" t="s">
-        <v>334</v>
       </c>
       <c r="D289" s="30">
         <v>3145853627</v>
@@ -10485,19 +10488,19 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A290" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D290" s="3">
         <v>8175042238</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>36</v>
@@ -10505,13 +10508,13 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A291" s="32" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B291" s="32" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C291" s="29" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D291" s="33">
         <v>9015383549</v>
@@ -10525,13 +10528,13 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A292" s="27" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B292" s="27" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C292" s="29" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D292" s="19">
         <v>9012626515</v>
@@ -10545,13 +10548,13 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A293" s="32" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B293" s="32" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C293" s="29" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D293" s="33">
         <v>9019108065</v>
@@ -10565,19 +10568,19 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A294" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C294" s="29" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D294" s="3">
         <v>9016523548</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F294" s="3" t="s">
         <v>37</v>
@@ -10585,19 +10588,19 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A295" s="27" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B295" s="27" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C295" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F295" s="30" t="s">
         <v>36</v>
@@ -10605,13 +10608,13 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A296" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C296" s="29" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D296" s="3">
         <v>9015908973</v>
@@ -10625,19 +10628,19 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A297" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="B297" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="B297" s="27" t="s">
+      <c r="C297" s="29" t="s">
         <v>564</v>
-      </c>
-      <c r="C297" s="29" t="s">
-        <v>565</v>
       </c>
       <c r="D297" s="30">
         <v>5136939185</v>
       </c>
       <c r="E297" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F297" s="30" t="s">
         <v>37</v>
@@ -10665,13 +10668,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A299" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B299" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="B299" s="32" t="s">
+      <c r="C299" s="29" t="s">
         <v>311</v>
-      </c>
-      <c r="C299" s="29" t="s">
-        <v>312</v>
       </c>
       <c r="D299" s="40">
         <v>6466441251</v>
@@ -10691,10 +10694,10 @@
         <v>148</v>
       </c>
       <c r="C300" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E300" s="30" t="s">
         <v>3</v>
@@ -10705,16 +10708,16 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A301" s="32" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B301" s="32" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C301" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D301" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E301" s="36" t="s">
         <v>3</v>
@@ -10725,22 +10728,22 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A302" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="B302" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="B302" s="27" t="s">
+      <c r="C302" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="C302" s="29" t="s">
-        <v>471</v>
-      </c>
       <c r="D302" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E302" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F302" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.75">
@@ -10751,10 +10754,10 @@
         <v>120</v>
       </c>
       <c r="C303" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D303" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E303" s="36" t="s">
         <v>3</v>
@@ -10765,13 +10768,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A304" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="B304" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="B304" s="27" t="s">
+      <c r="C304" s="29" t="s">
         <v>495</v>
-      </c>
-      <c r="C304" s="29" t="s">
-        <v>496</v>
       </c>
       <c r="D304" s="33">
         <v>3024233735</v>
@@ -10785,16 +10788,16 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A305" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C305" s="29" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E305" s="33" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>37</v>
@@ -10802,16 +10805,16 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A306" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="B306" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="B306" s="32" t="s">
-        <v>385</v>
-      </c>
       <c r="C306" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D306" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E306" s="34" t="s">
         <v>14</v>
@@ -10822,13 +10825,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A307" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B307" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="B307" s="32" t="s">
+      <c r="C307" s="29" t="s">
         <v>301</v>
-      </c>
-      <c r="C307" s="29" t="s">
-        <v>302</v>
       </c>
       <c r="D307" s="30">
         <v>9452492614</v>
@@ -10848,7 +10851,7 @@
         <v>26</v>
       </c>
       <c r="C308" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D308" s="30">
         <v>9013350996</v>
@@ -10882,16 +10885,16 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A310" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="B310" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="B310" s="27" t="s">
-        <v>466</v>
-      </c>
       <c r="C310" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E310" s="35" t="s">
         <v>14</v>
@@ -10902,16 +10905,16 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A311" s="32" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B311" s="32" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C311" s="29" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E311" s="35" t="s">
         <v>14</v>
@@ -10922,16 +10925,16 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A312" s="13" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C312" s="29" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E312" s="18" t="s">
         <v>3</v>
@@ -10942,16 +10945,16 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A313" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B313" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B313" s="15" t="s">
+      <c r="C313" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="C313" s="29" t="s">
-        <v>390</v>
-      </c>
       <c r="D313" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E313" s="36" t="s">
         <v>3</v>
@@ -10962,13 +10965,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A314" s="27" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B314" s="27" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C314" s="29" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D314" s="39">
         <v>9014886033</v>
@@ -10982,19 +10985,19 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A315" s="32" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B315" s="32" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C315" s="29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D315" s="52" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E315" s="30" t="s">
         <v>1104</v>
-      </c>
-      <c r="D315" s="52" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E315" s="30" t="s">
-        <v>1107</v>
       </c>
       <c r="F315" s="37" t="s">
         <v>38</v>
@@ -11008,27 +11011,27 @@
         <v>44</v>
       </c>
       <c r="C316" s="29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D316" s="52" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E316" s="30" t="s">
         <v>1104</v>
       </c>
-      <c r="D316" s="52" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E316" s="30" t="s">
-        <v>1107</v>
-      </c>
       <c r="F316" s="39" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A317" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="B317" s="32" t="s">
         <v>560</v>
       </c>
-      <c r="B317" s="32" t="s">
+      <c r="C317" s="29" t="s">
         <v>561</v>
-      </c>
-      <c r="C317" s="29" t="s">
-        <v>562</v>
       </c>
       <c r="D317" s="30">
         <v>2164138535</v>
@@ -11042,13 +11045,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A318" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B318" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B318" s="27" t="s">
+      <c r="C318" s="29" t="s">
         <v>418</v>
-      </c>
-      <c r="C318" s="29" t="s">
-        <v>419</v>
       </c>
       <c r="D318" s="17">
         <v>2487194191</v>
@@ -11102,16 +11105,16 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A321" s="32" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B321" s="32" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C321" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D321" s="52" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E321" s="37" t="s">
         <v>3</v>
@@ -11122,16 +11125,16 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A322" s="32" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B322" s="32" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C322" s="29" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E322" s="36" t="s">
         <v>3</v>
@@ -11151,13 +11154,13 @@
         <v>254</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E323" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F323" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.75">
@@ -11168,10 +11171,10 @@
         <v>129</v>
       </c>
       <c r="C324" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D324" s="52" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E324" s="36" t="s">
         <v>3</v>
@@ -11182,13 +11185,13 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A325" s="41" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B325" s="41" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C325" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D325" s="42">
         <v>9016565195</v>
@@ -11202,13 +11205,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A326" s="27" t="s">
-        <v>257</v>
+        <v>1259</v>
       </c>
       <c r="B326" s="27" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C326" s="29" t="s">
         <v>262</v>
-      </c>
-      <c r="C326" s="29" t="s">
-        <v>263</v>
       </c>
       <c r="D326" s="7">
         <v>9016560697</v>
@@ -11228,10 +11231,10 @@
         <v>94</v>
       </c>
       <c r="C327" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E327" s="39" t="s">
         <v>3</v>
@@ -11251,7 +11254,7 @@
         <v>76</v>
       </c>
       <c r="D328" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E328" s="12" t="s">
         <v>3</v>
@@ -11271,27 +11274,27 @@
         <v>73</v>
       </c>
       <c r="D329" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E329" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F329" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A330" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B330" s="27" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C330" s="29" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D330" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E330" s="35" t="s">
         <v>14</v>
@@ -11302,33 +11305,33 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A331" s="22" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C331" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D331" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E331" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F331" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A332" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B332" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="B332" s="27" t="s">
+      <c r="C332" s="29" t="s">
         <v>284</v>
-      </c>
-      <c r="C332" s="29" t="s">
-        <v>285</v>
       </c>
       <c r="D332" s="33">
         <v>4102453414</v>
@@ -11342,19 +11345,19 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A333" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="B333" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="B333" s="27" t="s">
+      <c r="C333" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="C333" s="29" t="s">
-        <v>474</v>
-      </c>
       <c r="D333" s="30" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E333" s="30" t="s">
         <v>1104</v>
-      </c>
-      <c r="E333" s="30" t="s">
-        <v>1107</v>
       </c>
       <c r="F333" s="30" t="s">
         <v>38</v>
@@ -11382,13 +11385,13 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A335" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="B335" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="B335" s="27" t="s">
+      <c r="C335" s="29" t="s">
         <v>538</v>
-      </c>
-      <c r="C335" s="29" t="s">
-        <v>539</v>
       </c>
       <c r="D335" s="39">
         <v>9012089930</v>
@@ -11397,18 +11400,18 @@
         <v>14</v>
       </c>
       <c r="F335" s="39" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A336" s="27" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B336" s="27" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C336" s="29" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D336" s="39">
         <v>9016561287</v>
@@ -11428,7 +11431,7 @@
         <v>252</v>
       </c>
       <c r="C337" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D337" s="33">
         <v>5852987290</v>
@@ -11451,7 +11454,7 @@
         <v>197</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E338" s="34" t="s">
         <v>14</v>
@@ -11482,16 +11485,16 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A340" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="B340" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="B340" s="13" t="s">
+      <c r="C340" s="29" t="s">
         <v>570</v>
       </c>
-      <c r="C340" s="29" t="s">
-        <v>571</v>
-      </c>
       <c r="D340" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E340" s="46" t="s">
         <v>3</v>
@@ -11502,19 +11505,19 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A341" s="14" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C341" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E341" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F341" s="30" t="s">
         <v>38</v>
@@ -11522,16 +11525,16 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A342" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="B342" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="B342" s="14" t="s">
+      <c r="C342" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="C342" s="29" t="s">
-        <v>551</v>
-      </c>
       <c r="D342" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E342" s="46" t="s">
         <v>3</v>
@@ -11551,7 +11554,7 @@
         <v>242</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E343" s="12" t="s">
         <v>3</v>
@@ -11568,7 +11571,7 @@
         <v>15</v>
       </c>
       <c r="C344" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D344" s="7">
         <v>9016076015</v>
@@ -11582,16 +11585,16 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A345" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B345" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B345" s="32" t="s">
+      <c r="C345" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="C345" s="29" t="s">
-        <v>404</v>
-      </c>
       <c r="D345" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E345" s="36" t="s">
         <v>3</v>
@@ -11602,13 +11605,13 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A346" s="27" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B346" s="27" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C346" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D346" s="7">
         <v>9013517280</v>
@@ -11622,16 +11625,16 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A347" s="15" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C347" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E347" s="36" t="s">
         <v>3</v>
@@ -11654,10 +11657,10 @@
         <v>9014972394</v>
       </c>
       <c r="E348" s="30" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F348" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.75">
@@ -11682,19 +11685,19 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A350" s="27" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B350" s="27" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C350" s="29" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D350" s="30" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E350" s="30" t="s">
         <v>1104</v>
-      </c>
-      <c r="E350" s="30" t="s">
-        <v>1107</v>
       </c>
       <c r="F350" s="30" t="s">
         <v>37</v>
@@ -11702,13 +11705,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A351" s="27" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B351" s="27" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C351" s="29" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D351" s="30">
         <v>9014719225</v>
@@ -11722,22 +11725,22 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A352" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="B352" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="B352" s="27" t="s">
-        <v>578</v>
-      </c>
       <c r="C352" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D352" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E352" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F352" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.75">
@@ -11777,18 +11780,18 @@
         <v>3</v>
       </c>
       <c r="F354" s="33" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A355" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B355" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="B355" s="32" t="s">
+      <c r="C355" s="29" t="s">
         <v>371</v>
-      </c>
-      <c r="C355" s="29" t="s">
-        <v>372</v>
       </c>
       <c r="D355" s="33">
         <v>9015694136</v>
@@ -11802,16 +11805,16 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A356" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="B356" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="B356" s="32" t="s">
+      <c r="C356" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="C356" s="29" t="s">
-        <v>410</v>
-      </c>
       <c r="D356" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E356" s="33" t="s">
         <v>3</v>
@@ -11822,22 +11825,22 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A357" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="B357" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="C357" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="D357" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="B357" s="27" t="s">
-        <v>699</v>
-      </c>
-      <c r="C357" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="D357" s="7" t="s">
-        <v>701</v>
-      </c>
       <c r="E357" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F357" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.75">
@@ -11859,14 +11862,14 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A359" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C359" s="29"/>
       <c r="E359" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F359" s="3" t="s">
         <v>36</v>
@@ -11874,13 +11877,13 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A360" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B360" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="C360" s="29" t="s">
         <v>430</v>
-      </c>
-      <c r="C360" s="29" t="s">
-        <v>431</v>
       </c>
       <c r="E360" s="28" t="s">
         <v>3</v>
@@ -11891,16 +11894,16 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A361" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="B361" s="27" t="s">
         <v>505</v>
       </c>
-      <c r="B361" s="27" t="s">
-        <v>506</v>
-      </c>
       <c r="C361" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D361" s="30" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E361" s="35" t="s">
         <v>14</v>
@@ -11911,13 +11914,13 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A362" s="27" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B362" s="27" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C362" s="29" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D362" s="37">
         <v>9015187539</v>
@@ -11926,7 +11929,7 @@
         <v>14</v>
       </c>
       <c r="F362" s="39" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.75">
@@ -11946,21 +11949,21 @@
         <v>3</v>
       </c>
       <c r="F363" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A364" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C364" s="29" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E364" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F364" s="3" t="s">
         <v>36</v>
@@ -11968,16 +11971,16 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A365" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C365" s="29" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E365" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F365" s="3" t="s">
         <v>36</v>
@@ -11985,10 +11988,10 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A366" s="3" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C366" s="29"/>
       <c r="E366" s="28" t="s">
@@ -12000,13 +12003,13 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A367" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C367" s="29" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D367" s="3">
         <v>9012927244</v>
@@ -12020,13 +12023,13 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A368" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C368" s="29" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D368" s="3">
         <v>5707049424</v>
@@ -12040,16 +12043,16 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A369" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C369" s="29" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D369" s="3">
         <v>9014579475</v>
       </c>
       <c r="E369" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F369" s="3" t="s">
         <v>37</v>
@@ -12057,13 +12060,13 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A370" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C370" s="29" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D370" s="3">
         <v>9016518086</v>
@@ -12077,13 +12080,13 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A371" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C371" s="29" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D371" s="3">
         <v>8603719916</v>
@@ -12097,13 +12100,13 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A372" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C372" s="29" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D372" s="3">
         <v>3476106158</v>
@@ -12117,13 +12120,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A373" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C373" s="29" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D373" s="3">
         <v>9015459306</v>
@@ -12137,13 +12140,13 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A374" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C374" s="29" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D374" s="3">
         <v>9013194981</v>
@@ -12160,7 +12163,7 @@
         <v>189</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C375" s="29"/>
       <c r="D375" s="3">
@@ -12175,13 +12178,13 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A376" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C376" s="29" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D376" s="3">
         <v>9013356904</v>
@@ -12195,16 +12198,16 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A377" s="3" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C377" s="29" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E377" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F377" s="3" t="s">
         <v>36</v>
@@ -12212,16 +12215,16 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A378" s="3" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C378" s="29" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E378" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F378" s="3" t="s">
         <v>36</v>
@@ -12229,16 +12232,16 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A379" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C379" s="29" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E379" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F379" s="3" t="s">
         <v>36</v>
@@ -12246,14 +12249,14 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A380" s="3" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C380" s="29"/>
       <c r="E380" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>38</v>
@@ -12261,16 +12264,16 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A381" s="3" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C381" s="29" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E381" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F381" s="3" t="s">
         <v>38</v>
@@ -12278,16 +12281,16 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A382" s="3" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E382" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F382" s="3" t="s">
         <v>36</v>
@@ -12295,16 +12298,16 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A383" s="3" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C383" s="29" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E383" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>39</v>
@@ -12312,16 +12315,16 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A384" s="3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C384" s="29" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="E384" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F384" s="3" t="s">
         <v>36</v>
@@ -12329,10 +12332,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A385" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C385" s="29"/>
       <c r="E385" s="28" t="s">
@@ -12342,19 +12345,19 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A386" s="3" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C386" s="29" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D386" s="3">
         <v>8122237059</v>
       </c>
       <c r="E386" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F386" s="3" t="s">
         <v>37</v>
@@ -12362,13 +12365,13 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A387" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C387" s="29" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E387" s="28" t="s">
         <v>3</v>
@@ -12379,19 +12382,19 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A388" s="3" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C388" s="29" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D388" s="3">
         <v>9013359057</v>
       </c>
       <c r="E388" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F388" s="3" t="s">
         <v>36</v>
@@ -12399,19 +12402,19 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A389" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C389" s="29" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D389" s="3">
         <v>2343520494</v>
       </c>
       <c r="E389" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F389" s="3" t="s">
         <v>36</v>
@@ -12419,13 +12422,13 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A390" s="3" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C390" s="29" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D390" s="3">
         <v>9014983684</v>
@@ -12439,19 +12442,19 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A391" s="3" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C391" s="29" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D391" s="3">
         <v>9014689892</v>
       </c>
       <c r="E391" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F391" s="3" t="s">
         <v>39</v>
@@ -12459,13 +12462,13 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A392" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C392" s="29" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E392" s="28" t="s">
         <v>3</v>
@@ -12476,14 +12479,14 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A393" s="3" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C393" s="29"/>
       <c r="E393" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F393" s="3" t="s">
         <v>37</v>
@@ -12491,19 +12494,19 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A394" s="3" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C394" s="29" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D394" s="3">
         <v>3026662300</v>
       </c>
       <c r="E394" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F394" s="3" t="s">
         <v>37</v>
@@ -12511,17 +12514,17 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A395" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C395" s="29"/>
       <c r="D395" s="3">
         <v>9016107165</v>
       </c>
       <c r="E395" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F395" s="3" t="s">
         <v>36</v>
@@ -12532,16 +12535,16 @@
         <v>84</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C396" s="29" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D396" s="4">
         <v>9015182807</v>
       </c>
       <c r="E396" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F396" s="4" t="s">
         <v>39</v>
@@ -12549,19 +12552,19 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A397" s="3" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C397" s="29" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D397" s="3">
         <v>9015177692</v>
       </c>
       <c r="E397" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F397" s="4" t="s">
         <v>39</v>
@@ -12569,17 +12572,17 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A398" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C398" s="29"/>
       <c r="D398" s="3">
         <v>9016108524</v>
       </c>
       <c r="E398" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F398" s="3" t="s">
         <v>36</v>
@@ -12587,19 +12590,19 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A399" s="3" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C399" s="29" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D399" s="3">
         <v>9013554969</v>
       </c>
       <c r="E399" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F399" s="3" t="s">
         <v>37</v>
@@ -12607,13 +12610,13 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A400" s="3" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C400" s="29" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D400" s="3">
         <v>9154492523</v>
@@ -12627,16 +12630,16 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A401" s="3" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C401" s="29" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="E401" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F401" s="3" t="s">
         <v>37</v>
@@ -12644,14 +12647,14 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A402" s="3" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C402" s="29"/>
       <c r="E402" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F402" s="3" t="s">
         <v>39</v>
@@ -12659,19 +12662,19 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A403" s="3" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C403" s="29" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D403" s="3">
         <v>9014467707</v>
       </c>
       <c r="E403" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F403" s="3" t="s">
         <v>37</v>
@@ -12679,17 +12682,17 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A404" s="3" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C404" s="29"/>
       <c r="D404" s="3">
         <v>5109652252</v>
       </c>
       <c r="E404" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F404" s="3" t="s">
         <v>37</v>
@@ -12697,19 +12700,19 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A405" s="3" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C405" s="29" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D405" s="3">
         <v>9018576023</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F405" s="3" t="s">
         <v>36</v>
@@ -12717,19 +12720,19 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A406" s="3" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C406" s="29" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D406" s="3">
         <v>9014469710</v>
       </c>
       <c r="E406" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F406" s="3" t="s">
         <v>36</v>
@@ -12737,19 +12740,19 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A407" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C407" s="29" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D407" s="3">
         <v>9018601208</v>
       </c>
       <c r="E407" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>39</v>
@@ -12757,19 +12760,19 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A408" s="3" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C408" s="29" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D408" s="3">
         <v>9016324031</v>
       </c>
       <c r="E408" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>39</v>
@@ -12777,17 +12780,17 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A409" s="3" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C409" s="29"/>
       <c r="D409" s="3">
         <v>9402126475</v>
       </c>
       <c r="E409" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>37</v>
@@ -12795,17 +12798,17 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A410" s="3" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C410" s="29"/>
       <c r="D410" s="3">
         <v>9016106410</v>
       </c>
       <c r="E410" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>36</v>
@@ -12813,14 +12816,14 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A411" s="3" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C411" s="29"/>
       <c r="E411" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F411" s="3" t="s">
         <v>39</v>
@@ -12828,34 +12831,34 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A412" s="3" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C412" s="29"/>
       <c r="E412" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A413" s="3" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C413" s="29" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="D413" s="3">
         <v>9012362118</v>
       </c>
       <c r="E413" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>36</v>
@@ -12863,19 +12866,19 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A414" s="3" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C414" s="29" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="D414" s="3">
         <v>5052048067</v>
       </c>
       <c r="E414" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F414" s="3" t="s">
         <v>37</v>
@@ -12883,14 +12886,14 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A415" s="3" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C415" s="29"/>
       <c r="E415" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F415" s="3" t="s">
         <v>37</v>
@@ -12898,13 +12901,13 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A416" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C416" s="29" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D416" s="3">
         <v>4238830189</v>
@@ -12918,14 +12921,14 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A417" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C417" s="29"/>
       <c r="E417" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F417" s="3" t="s">
         <v>39</v>
@@ -12933,14 +12936,14 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A418" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C418" s="29"/>
       <c r="E418" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F418" s="3" t="s">
         <v>39</v>
@@ -12948,11 +12951,11 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A419" s="3" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C419" s="29"/>
       <c r="E419" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F419" s="3" t="s">
         <v>39</v>
@@ -12960,11 +12963,11 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A420" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C420" s="29"/>
       <c r="E420" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F420" s="3" t="s">
         <v>39</v>
@@ -12972,7 +12975,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A421" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>209</v>
@@ -12987,16 +12990,16 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A422" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C422" s="29" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="E422" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F422" s="3" t="s">
         <v>36</v>
@@ -13004,10 +13007,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A423" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C423" s="29"/>
       <c r="E423" s="28" t="s">
@@ -13019,10 +13022,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A424" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C424" s="29"/>
       <c r="E424" s="35" t="s">
@@ -13034,25 +13037,25 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A425" s="3" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C425" s="29"/>
       <c r="E425" s="35" t="s">
         <v>14</v>
       </c>
       <c r="F425" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A426" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C426" s="29"/>
       <c r="E426" s="35" t="s">
@@ -13064,14 +13067,14 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A427" s="3" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C427" s="29"/>
       <c r="E427" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F427" s="3" t="s">
         <v>39</v>
@@ -13079,14 +13082,14 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A428" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C428" s="29"/>
       <c r="E428" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F428" s="3" t="s">
         <v>39</v>
@@ -13094,11 +13097,11 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A429" s="3" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C429" s="29"/>
       <c r="E429" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F429" s="3" t="s">
         <v>39</v>
@@ -13109,16 +13112,16 @@
         <v>201</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C430" s="29" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D430" s="3">
         <v>6624086089</v>
       </c>
       <c r="E430" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F430" s="3" t="s">
         <v>39</v>
@@ -13126,42 +13129,42 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A431" s="30" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B431" s="59" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C431" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D431" s="60" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E431" s="61" t="s">
         <v>14</v>
       </c>
       <c r="F431" s="59" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A432" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B432" s="59" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C432" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D432" s="60" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E432" s="61" t="s">
         <v>14</v>
       </c>
       <c r="F432" s="60" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.75">
@@ -13169,51 +13172,51 @@
         <v>98</v>
       </c>
       <c r="B433" s="63" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C433" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D433" s="64" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E433" s="65" t="s">
         <v>14</v>
       </c>
       <c r="F433" s="64" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A434" s="30" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B434" s="59" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C434" s="29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D434" s="60" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="E434" s="61" t="s">
         <v>14</v>
       </c>
       <c r="F434" s="59" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A435" s="3" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C435" s="29"/>
       <c r="E435" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F435" s="30" t="s">
         <v>38</v>
@@ -13221,19 +13224,19 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A436" s="3" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C436" s="29" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D436" s="3">
         <v>9014382760</v>
       </c>
       <c r="E436" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F436" s="3" t="s">
         <v>36</v>
@@ -13241,17 +13244,17 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A437" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C437" s="29"/>
       <c r="D437" s="3">
         <v>9012180591</v>
       </c>
       <c r="E437" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F437" s="3" t="s">
         <v>36</v>
@@ -13259,17 +13262,17 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A438" s="3" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C438" s="29"/>
       <c r="D438" s="3">
         <v>9014127861</v>
       </c>
       <c r="E438" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F438" s="3" t="s">
         <v>39</v>
@@ -13277,19 +13280,19 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A439" s="3" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C439" s="29" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="D439" s="3">
         <v>9014627425</v>
       </c>
       <c r="E439" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F439" s="3" t="s">
         <v>39</v>
@@ -13297,19 +13300,19 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A440" s="3" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C440" s="29" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D440" s="3">
         <v>9017659131</v>
       </c>
       <c r="E440" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F440" s="3" t="s">
         <v>39</v>
@@ -13317,17 +13320,17 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A441" s="3" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C441" s="29"/>
       <c r="D441" s="3">
         <v>9136204517</v>
       </c>
       <c r="E441" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F441" s="3" t="s">
         <v>39</v>
@@ -13335,17 +13338,17 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A442" s="3" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C442" s="29"/>
       <c r="D442" s="3">
         <v>6123937088</v>
       </c>
       <c r="E442" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F442" s="3" t="s">
         <v>39</v>
@@ -13353,17 +13356,17 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A443" s="3" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C443" s="29"/>
       <c r="D443" s="3">
         <v>9018019626</v>
       </c>
       <c r="E443" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F443" s="3" t="s">
         <v>39</v>
@@ -13371,19 +13374,19 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A444" s="3" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C444" s="29" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="D444" s="3">
         <v>2676167635</v>
       </c>
       <c r="E444" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F444" s="3" t="s">
         <v>36</v>
@@ -13391,17 +13394,17 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A445" s="3" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C445" s="29"/>
       <c r="D445" s="3">
         <v>8327927305</v>
       </c>
       <c r="E445" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F445" s="3" t="s">
         <v>39</v>
@@ -13409,19 +13412,19 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A446" s="3" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C446" s="29" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D446" s="3">
         <v>9016861361</v>
       </c>
       <c r="E446" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F446" s="3" t="s">
         <v>39</v>
@@ -13429,19 +13432,19 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A447" s="3" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C447" s="29" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D447" s="3">
         <v>9494915129</v>
       </c>
       <c r="E447" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F447" s="3" t="s">
         <v>36</v>
@@ -13452,16 +13455,16 @@
         <v>226</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C448" s="29" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="D448" s="3">
         <v>7047014130</v>
       </c>
       <c r="E448" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F448" s="3" t="s">
         <v>39</v>
@@ -13469,19 +13472,19 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A449" s="3" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C449" s="29" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D449" s="3">
         <v>9015195030</v>
       </c>
       <c r="E449" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F449" s="3" t="s">
         <v>36</v>
@@ -13489,14 +13492,14 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A450" s="3" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C450" s="29"/>
       <c r="E450" s="30" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F450" s="3" t="s">
         <v>39</v>
@@ -13504,14 +13507,14 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A451" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C451" s="29"/>
       <c r="E451" s="30" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F451" s="3" t="s">
         <v>39</v>
@@ -13519,14 +13522,14 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A452" s="3" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C452" s="29"/>
       <c r="E452" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F452" s="3" t="s">
         <v>39</v>
@@ -13534,14 +13537,14 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A453" s="3" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C453" s="29"/>
       <c r="E453" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F453" s="3" t="s">
         <v>39</v>
@@ -13549,15 +13552,15 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A454" s="6" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C454" s="110"/>
       <c r="D454" s="109"/>
       <c r="E454" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F454" s="3" t="s">
         <v>39</v>
@@ -13566,80 +13569,80 @@
     <row r="455" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A455" s="66"/>
       <c r="B455" s="67" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C455" s="68"/>
       <c r="D455" s="68"/>
       <c r="E455" s="69" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A456" s="70" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B456" s="71" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C456" s="72"/>
       <c r="D456" s="72"/>
       <c r="E456" s="73" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A457" s="67" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B457" s="74" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C457" s="68"/>
       <c r="D457" s="68"/>
       <c r="E457" s="69" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A458" s="71" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B458" s="71" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C458" s="72"/>
       <c r="D458" s="72"/>
       <c r="E458" s="73" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A459" s="75" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B459" s="67" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C459" s="68"/>
       <c r="D459" s="68"/>
       <c r="E459" s="69" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A460" s="70"/>
       <c r="B460" s="76" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C460" s="72"/>
       <c r="D460" s="72"/>
       <c r="E460" s="73" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A461" s="77" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B461" s="67" t="s">
         <v>257</v>
@@ -13647,274 +13650,274 @@
       <c r="C461" s="68"/>
       <c r="D461" s="68"/>
       <c r="E461" s="69" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A462" s="71" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B462" s="71" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C462" s="72"/>
       <c r="D462" s="72"/>
       <c r="E462" s="73" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A463" s="67" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B463" s="67" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C463" s="78" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D463" s="79">
         <v>9013364796</v>
       </c>
       <c r="E463" s="69" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A464" s="70" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B464" s="71" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C464" s="72"/>
       <c r="D464" s="72"/>
       <c r="E464" s="73" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A465" s="80" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B465" s="67" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C465" s="68"/>
       <c r="D465" s="68"/>
       <c r="E465" s="69" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A466" s="81" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B466" s="76" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C466" s="72" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D466" s="72"/>
       <c r="E466" s="73" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A467" s="82"/>
       <c r="B467" s="77" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C467" s="68"/>
       <c r="D467" s="68"/>
       <c r="E467" s="69" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A468" s="83" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B468" s="76" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C468" s="72"/>
       <c r="D468" s="72"/>
       <c r="E468" s="84" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A469" s="75" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B469" s="85" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C469" s="68"/>
       <c r="D469" s="68"/>
       <c r="E469" s="69" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A470" s="86" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B470" s="87" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C470" s="72"/>
       <c r="D470" s="72"/>
       <c r="E470" s="73" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A471" s="88" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B471" s="89" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C471" s="68"/>
       <c r="D471" s="68"/>
       <c r="E471" s="69" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A472" s="90"/>
       <c r="B472" s="81" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C472" s="72"/>
       <c r="D472" s="72"/>
       <c r="E472" s="73" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A473" s="75" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B473" s="89" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C473" s="68"/>
       <c r="D473" s="68"/>
       <c r="E473" s="91" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A474" s="92"/>
       <c r="B474" s="93" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C474" s="94" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D474" s="72"/>
       <c r="E474" s="73" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A475" s="75" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B475" s="85" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C475" s="68"/>
       <c r="D475" s="68"/>
       <c r="E475" s="69" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A476" s="81" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B476" s="95" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C476" s="72"/>
       <c r="D476" s="96" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E476" s="73" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A477" s="88"/>
       <c r="B477" s="89" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C477" s="68"/>
       <c r="D477" s="97"/>
       <c r="E477" s="69" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A478" s="86"/>
       <c r="B478" s="71" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C478" s="98" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D478" s="72"/>
       <c r="E478" s="73" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A479" s="88"/>
       <c r="B479" s="67" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C479" s="99" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D479" s="97"/>
       <c r="E479" s="69" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A480" s="86" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B480" s="87" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C480" s="72"/>
       <c r="D480" s="72"/>
       <c r="E480" s="73" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A481" s="75" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B481" s="85" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C481" s="68"/>
       <c r="D481" s="68"/>
       <c r="E481" s="69" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A482" s="81" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B482" s="95" t="s">
         <v>82</v>
@@ -13922,372 +13925,372 @@
       <c r="C482" s="72"/>
       <c r="D482" s="72"/>
       <c r="E482" s="73" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A483" s="75" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B483" s="85" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C483" s="68"/>
       <c r="D483" s="68"/>
       <c r="E483" s="69" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A484" s="81" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B484" s="95" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C484" s="72"/>
       <c r="D484" s="72"/>
       <c r="E484" s="73" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A485" s="88" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B485" s="89" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C485" s="68"/>
       <c r="D485" s="68"/>
       <c r="E485" s="69" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A486" s="86" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B486" s="87" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C486" s="72"/>
       <c r="D486" s="72"/>
       <c r="E486" s="100" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A487" s="88" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B487" s="89"/>
       <c r="C487" s="68"/>
       <c r="D487" s="68"/>
       <c r="E487" s="101" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A488" s="86"/>
       <c r="B488" s="87" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C488" s="98" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D488" s="72"/>
       <c r="E488" s="73" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A489" s="88"/>
       <c r="B489" s="89" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C489" s="102"/>
       <c r="D489" s="68"/>
       <c r="E489" s="69" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A490" s="92"/>
       <c r="B490" s="87" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C490" s="72"/>
       <c r="D490" s="72"/>
       <c r="E490" s="73" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A491" s="75" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B491" s="85" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C491" s="68"/>
       <c r="D491" s="68"/>
       <c r="E491" s="69" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A492" s="86" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B492" s="87" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C492" s="72"/>
       <c r="D492" s="72"/>
       <c r="E492" s="73" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A493" s="103"/>
       <c r="B493" s="89" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C493" s="68"/>
       <c r="D493" s="68"/>
       <c r="E493" s="69" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A494" s="87" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B494" s="71" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C494" s="72"/>
       <c r="D494" s="72"/>
       <c r="E494" s="73" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A495" s="75" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B495" s="85" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C495" s="68"/>
       <c r="D495" s="68"/>
       <c r="E495" s="69" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A496" s="86" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B496" s="87" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C496" s="72"/>
       <c r="D496" s="72"/>
       <c r="E496" s="73" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A497" s="66" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B497" s="67" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C497" s="68"/>
       <c r="D497" s="68"/>
       <c r="E497" s="69" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A498" s="86" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B498" s="87" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C498" s="72"/>
       <c r="D498" s="72"/>
       <c r="E498" s="73" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A499" s="88"/>
       <c r="B499" s="89" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C499" s="104" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D499" s="68"/>
       <c r="E499" s="69" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A500" s="81" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B500" s="95" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C500" s="72"/>
       <c r="D500" s="72"/>
       <c r="E500" s="73" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A501" s="88" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B501" s="89" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C501" s="68"/>
       <c r="D501" s="68"/>
       <c r="E501" s="69" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A502" s="81" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B502" s="95" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C502" s="72"/>
       <c r="D502" s="72"/>
       <c r="E502" s="73" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A503" s="88"/>
       <c r="B503" s="89" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C503" s="68"/>
       <c r="D503" s="68"/>
       <c r="E503" s="69" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A504" s="105" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B504" s="106" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C504" s="72"/>
       <c r="D504" s="72"/>
       <c r="E504" s="73" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A505" s="107" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B505" s="108" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C505" s="68"/>
       <c r="D505" s="68"/>
       <c r="E505" s="69" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A506" s="105" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B506" s="106" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C506" s="72"/>
       <c r="D506" s="72"/>
       <c r="E506" s="73" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A507" s="107" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B507" s="108" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C507" s="68"/>
       <c r="D507" s="68"/>
       <c r="E507" s="69" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A508" s="105" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B508" s="87"/>
       <c r="C508" s="72"/>
       <c r="D508" s="72"/>
       <c r="E508" s="73" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A509" s="107" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B509" s="108" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C509" s="68"/>
       <c r="D509" s="68"/>
       <c r="E509" s="69" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A510" s="105" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B510" s="106" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C510" s="72"/>
       <c r="D510" s="72"/>
       <c r="E510" s="73" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A511" s="107" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B511" s="108" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C511" s="68"/>
       <c r="D511" s="68"/>
       <c r="E511" s="69" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/MembershipData.xlsx
+++ b/src/assets/MembershipData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrcgu\tam-members\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE1BB13-633D-4454-A20F-2B159444B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C85D81-C461-426F-BBA1-2A901A1385C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{1F51C348-A47B-4F17-A7FA-BEAAD77C1C4F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="1263">
   <si>
     <t xml:space="preserve">ABDUL </t>
   </si>
@@ -3810,6 +3810,12 @@
   </si>
   <si>
     <t>Mamila</t>
+  </si>
+  <si>
+    <t>Suryapraksha</t>
+  </si>
+  <si>
+    <t>Maroju</t>
   </si>
 </sst>
 </file>
@@ -4212,7 +4218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4460,6 +4466,7 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4775,10 +4782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3152D-0757-464D-9D51-AEB4CC777707}">
-  <dimension ref="A1:I511"/>
+  <dimension ref="A1:I512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="A326" sqref="A326"/>
+    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="A456" sqref="A456:XFD456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -13567,729 +13574,745 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A455" s="66"/>
-      <c r="B455" s="67" t="s">
+      <c r="A455" s="111" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B455" s="111" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C455" s="110"/>
+      <c r="D455" s="109"/>
+      <c r="E455" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A456" s="66"/>
+      <c r="B456" s="67" t="s">
         <v>995</v>
       </c>
-      <c r="C455" s="68"/>
-      <c r="D455" s="68"/>
-      <c r="E455" s="69" t="s">
+      <c r="C456" s="68"/>
+      <c r="D456" s="68"/>
+      <c r="E456" s="69" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A456" s="70" t="s">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A457" s="70" t="s">
         <v>997</v>
       </c>
-      <c r="B456" s="71" t="s">
+      <c r="B457" s="71" t="s">
         <v>998</v>
       </c>
-      <c r="C456" s="72"/>
-      <c r="D456" s="72"/>
-      <c r="E456" s="73" t="s">
+      <c r="C457" s="72"/>
+      <c r="D457" s="72"/>
+      <c r="E457" s="73" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A457" s="67" t="s">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A458" s="67" t="s">
         <v>999</v>
       </c>
-      <c r="B457" s="74" t="s">
+      <c r="B458" s="74" t="s">
         <v>1000</v>
       </c>
-      <c r="C457" s="68"/>
-      <c r="D457" s="68"/>
-      <c r="E457" s="69" t="s">
+      <c r="C458" s="68"/>
+      <c r="D458" s="68"/>
+      <c r="E458" s="69" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A458" s="71" t="s">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A459" s="71" t="s">
         <v>1002</v>
       </c>
-      <c r="B458" s="71" t="s">
+      <c r="B459" s="71" t="s">
         <v>1003</v>
       </c>
-      <c r="C458" s="72"/>
-      <c r="D458" s="72"/>
-      <c r="E458" s="73" t="s">
+      <c r="C459" s="72"/>
+      <c r="D459" s="72"/>
+      <c r="E459" s="73" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A459" s="75" t="s">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A460" s="75" t="s">
         <v>1005</v>
       </c>
-      <c r="B459" s="67" t="s">
+      <c r="B460" s="67" t="s">
         <v>1006</v>
       </c>
-      <c r="C459" s="68"/>
-      <c r="D459" s="68"/>
-      <c r="E459" s="69" t="s">
+      <c r="C460" s="68"/>
+      <c r="D460" s="68"/>
+      <c r="E460" s="69" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A460" s="70"/>
-      <c r="B460" s="76" t="s">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A461" s="70"/>
+      <c r="B461" s="76" t="s">
         <v>1007</v>
       </c>
-      <c r="C460" s="72"/>
-      <c r="D460" s="72"/>
-      <c r="E460" s="73" t="s">
+      <c r="C461" s="72"/>
+      <c r="D461" s="72"/>
+      <c r="E461" s="73" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A461" s="77" t="s">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A462" s="77" t="s">
         <v>1008</v>
       </c>
-      <c r="B461" s="67" t="s">
+      <c r="B462" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="C461" s="68"/>
-      <c r="D461" s="68"/>
-      <c r="E461" s="69" t="s">
+      <c r="C462" s="68"/>
+      <c r="D462" s="68"/>
+      <c r="E462" s="69" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A462" s="71" t="s">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A463" s="71" t="s">
         <v>1009</v>
       </c>
-      <c r="B462" s="71" t="s">
+      <c r="B463" s="71" t="s">
         <v>1010</v>
       </c>
-      <c r="C462" s="72"/>
-      <c r="D462" s="72"/>
-      <c r="E462" s="73" t="s">
+      <c r="C463" s="72"/>
+      <c r="D463" s="72"/>
+      <c r="E463" s="73" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A463" s="67" t="s">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A464" s="67" t="s">
         <v>1011</v>
       </c>
-      <c r="B463" s="67" t="s">
+      <c r="B464" s="67" t="s">
         <v>1012</v>
       </c>
-      <c r="C463" s="78" t="s">
+      <c r="C464" s="78" t="s">
         <v>1013</v>
       </c>
-      <c r="D463" s="79">
+      <c r="D464" s="79">
         <v>9013364796</v>
       </c>
-      <c r="E463" s="69" t="s">
+      <c r="E464" s="69" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A464" s="70" t="s">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A465" s="70" t="s">
         <v>1014</v>
       </c>
-      <c r="B464" s="71" t="s">
+      <c r="B465" s="71" t="s">
         <v>1015</v>
       </c>
-      <c r="C464" s="72"/>
-      <c r="D464" s="72"/>
-      <c r="E464" s="73" t="s">
+      <c r="C465" s="72"/>
+      <c r="D465" s="72"/>
+      <c r="E465" s="73" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A465" s="80" t="s">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A466" s="80" t="s">
         <v>1016</v>
       </c>
-      <c r="B465" s="67" t="s">
+      <c r="B466" s="67" t="s">
         <v>1017</v>
       </c>
-      <c r="C465" s="68"/>
-      <c r="D465" s="68"/>
-      <c r="E465" s="69" t="s">
+      <c r="C466" s="68"/>
+      <c r="D466" s="68"/>
+      <c r="E466" s="69" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A466" s="81" t="s">
+    <row r="467" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A467" s="81" t="s">
         <v>1018</v>
       </c>
-      <c r="B466" s="76" t="s">
+      <c r="B467" s="76" t="s">
         <v>1019</v>
       </c>
-      <c r="C466" s="72" t="s">
+      <c r="C467" s="72" t="s">
         <v>1020</v>
       </c>
-      <c r="D466" s="72"/>
-      <c r="E466" s="73" t="s">
+      <c r="D467" s="72"/>
+      <c r="E467" s="73" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A467" s="82"/>
-      <c r="B467" s="77" t="s">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A468" s="82"/>
+      <c r="B468" s="77" t="s">
         <v>1021</v>
       </c>
-      <c r="C467" s="68"/>
-      <c r="D467" s="68"/>
-      <c r="E467" s="69" t="s">
+      <c r="C468" s="68"/>
+      <c r="D468" s="68"/>
+      <c r="E468" s="69" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A468" s="83" t="s">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A469" s="83" t="s">
         <v>1022</v>
       </c>
-      <c r="B468" s="76" t="s">
+      <c r="B469" s="76" t="s">
         <v>1023</v>
       </c>
-      <c r="C468" s="72"/>
-      <c r="D468" s="72"/>
-      <c r="E468" s="84" t="s">
+      <c r="C469" s="72"/>
+      <c r="D469" s="72"/>
+      <c r="E469" s="84" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A469" s="75" t="s">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A470" s="75" t="s">
         <v>1025</v>
       </c>
-      <c r="B469" s="85" t="s">
+      <c r="B470" s="85" t="s">
         <v>1026</v>
       </c>
-      <c r="C469" s="68"/>
-      <c r="D469" s="68"/>
-      <c r="E469" s="69" t="s">
+      <c r="C470" s="68"/>
+      <c r="D470" s="68"/>
+      <c r="E470" s="69" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A470" s="86" t="s">
+    <row r="471" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A471" s="86" t="s">
         <v>1027</v>
       </c>
-      <c r="B470" s="87" t="s">
+      <c r="B471" s="87" t="s">
         <v>1028</v>
       </c>
-      <c r="C470" s="72"/>
-      <c r="D470" s="72"/>
-      <c r="E470" s="73" t="s">
+      <c r="C471" s="72"/>
+      <c r="D471" s="72"/>
+      <c r="E471" s="73" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A471" s="88" t="s">
+    <row r="472" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A472" s="88" t="s">
         <v>1029</v>
       </c>
-      <c r="B471" s="89" t="s">
+      <c r="B472" s="89" t="s">
         <v>1030</v>
       </c>
-      <c r="C471" s="68"/>
-      <c r="D471" s="68"/>
-      <c r="E471" s="69" t="s">
+      <c r="C472" s="68"/>
+      <c r="D472" s="68"/>
+      <c r="E472" s="69" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A472" s="90"/>
-      <c r="B472" s="81" t="s">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A473" s="90"/>
+      <c r="B473" s="81" t="s">
         <v>1031</v>
       </c>
-      <c r="C472" s="72"/>
-      <c r="D472" s="72"/>
-      <c r="E472" s="73" t="s">
+      <c r="C473" s="72"/>
+      <c r="D473" s="72"/>
+      <c r="E473" s="73" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A473" s="75" t="s">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A474" s="75" t="s">
         <v>1032</v>
       </c>
-      <c r="B473" s="89" t="s">
+      <c r="B474" s="89" t="s">
         <v>1033</v>
       </c>
-      <c r="C473" s="68"/>
-      <c r="D473" s="68"/>
-      <c r="E473" s="91" t="s">
+      <c r="C474" s="68"/>
+      <c r="D474" s="68"/>
+      <c r="E474" s="91" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A474" s="92"/>
-      <c r="B474" s="93" t="s">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A475" s="92"/>
+      <c r="B475" s="93" t="s">
         <v>1034</v>
       </c>
-      <c r="C474" s="94" t="s">
+      <c r="C475" s="94" t="s">
         <v>1035</v>
       </c>
-      <c r="D474" s="72"/>
-      <c r="E474" s="73" t="s">
+      <c r="D475" s="72"/>
+      <c r="E475" s="73" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A475" s="75" t="s">
+    <row r="476" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A476" s="75" t="s">
         <v>1036</v>
       </c>
-      <c r="B475" s="85" t="s">
+      <c r="B476" s="85" t="s">
         <v>1037</v>
       </c>
-      <c r="C475" s="68"/>
-      <c r="D475" s="68"/>
-      <c r="E475" s="69" t="s">
+      <c r="C476" s="68"/>
+      <c r="D476" s="68"/>
+      <c r="E476" s="69" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A476" s="81" t="s">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A477" s="81" t="s">
         <v>1038</v>
       </c>
-      <c r="B476" s="95" t="s">
+      <c r="B477" s="95" t="s">
         <v>1039</v>
       </c>
-      <c r="C476" s="72"/>
-      <c r="D476" s="96" t="s">
+      <c r="C477" s="72"/>
+      <c r="D477" s="96" t="s">
         <v>1040</v>
       </c>
-      <c r="E476" s="73" t="s">
+      <c r="E477" s="73" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A477" s="88"/>
-      <c r="B477" s="89" t="s">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A478" s="88"/>
+      <c r="B478" s="89" t="s">
         <v>1041</v>
       </c>
-      <c r="C477" s="68"/>
-      <c r="D477" s="97"/>
-      <c r="E477" s="69" t="s">
+      <c r="C478" s="68"/>
+      <c r="D478" s="97"/>
+      <c r="E478" s="69" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A478" s="86"/>
-      <c r="B478" s="71" t="s">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A479" s="86"/>
+      <c r="B479" s="71" t="s">
         <v>1042</v>
       </c>
-      <c r="C478" s="98" t="s">
+      <c r="C479" s="98" t="s">
         <v>527</v>
       </c>
-      <c r="D478" s="72"/>
-      <c r="E478" s="73" t="s">
+      <c r="D479" s="72"/>
+      <c r="E479" s="73" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A479" s="88"/>
-      <c r="B479" s="67" t="s">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A480" s="88"/>
+      <c r="B480" s="67" t="s">
         <v>1044</v>
       </c>
-      <c r="C479" s="99" t="s">
+      <c r="C480" s="99" t="s">
         <v>1045</v>
       </c>
-      <c r="D479" s="97"/>
-      <c r="E479" s="69" t="s">
+      <c r="D480" s="97"/>
+      <c r="E480" s="69" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A480" s="86" t="s">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A481" s="86" t="s">
         <v>1046</v>
       </c>
-      <c r="B480" s="87" t="s">
+      <c r="B481" s="87" t="s">
         <v>1047</v>
       </c>
-      <c r="C480" s="72"/>
-      <c r="D480" s="72"/>
-      <c r="E480" s="73" t="s">
+      <c r="C481" s="72"/>
+      <c r="D481" s="72"/>
+      <c r="E481" s="73" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A481" s="75" t="s">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A482" s="75" t="s">
         <v>1048</v>
       </c>
-      <c r="B481" s="85" t="s">
+      <c r="B482" s="85" t="s">
         <v>1049</v>
       </c>
-      <c r="C481" s="68"/>
-      <c r="D481" s="68"/>
-      <c r="E481" s="69" t="s">
+      <c r="C482" s="68"/>
+      <c r="D482" s="68"/>
+      <c r="E482" s="69" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A482" s="81" t="s">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A483" s="81" t="s">
         <v>1050</v>
       </c>
-      <c r="B482" s="95" t="s">
+      <c r="B483" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="C482" s="72"/>
-      <c r="D482" s="72"/>
-      <c r="E482" s="73" t="s">
+      <c r="C483" s="72"/>
+      <c r="D483" s="72"/>
+      <c r="E483" s="73" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A483" s="75" t="s">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A484" s="75" t="s">
         <v>1051</v>
       </c>
-      <c r="B483" s="85" t="s">
+      <c r="B484" s="85" t="s">
         <v>1052</v>
       </c>
-      <c r="C483" s="68"/>
-      <c r="D483" s="68"/>
-      <c r="E483" s="69" t="s">
+      <c r="C484" s="68"/>
+      <c r="D484" s="68"/>
+      <c r="E484" s="69" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A484" s="81" t="s">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A485" s="81" t="s">
         <v>1053</v>
       </c>
-      <c r="B484" s="95" t="s">
+      <c r="B485" s="95" t="s">
         <v>1054</v>
       </c>
-      <c r="C484" s="72"/>
-      <c r="D484" s="72"/>
-      <c r="E484" s="73" t="s">
+      <c r="C485" s="72"/>
+      <c r="D485" s="72"/>
+      <c r="E485" s="73" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A485" s="88" t="s">
+    <row r="486" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A486" s="88" t="s">
         <v>1055</v>
       </c>
-      <c r="B485" s="89" t="s">
+      <c r="B486" s="89" t="s">
         <v>1253</v>
       </c>
-      <c r="C485" s="68"/>
-      <c r="D485" s="68"/>
-      <c r="E485" s="69" t="s">
+      <c r="C486" s="68"/>
+      <c r="D486" s="68"/>
+      <c r="E486" s="69" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A486" s="86" t="s">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A487" s="86" t="s">
         <v>1056</v>
       </c>
-      <c r="B486" s="87" t="s">
+      <c r="B487" s="87" t="s">
         <v>1057</v>
       </c>
-      <c r="C486" s="72"/>
-      <c r="D486" s="72"/>
-      <c r="E486" s="100" t="s">
+      <c r="C487" s="72"/>
+      <c r="D487" s="72"/>
+      <c r="E487" s="100" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A487" s="88" t="s">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A488" s="88" t="s">
         <v>1058</v>
       </c>
-      <c r="B487" s="89"/>
-      <c r="C487" s="68"/>
-      <c r="D487" s="68"/>
-      <c r="E487" s="101" t="s">
+      <c r="B488" s="89"/>
+      <c r="C488" s="68"/>
+      <c r="D488" s="68"/>
+      <c r="E488" s="101" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A488" s="86"/>
-      <c r="B488" s="87" t="s">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A489" s="86"/>
+      <c r="B489" s="87" t="s">
         <v>1060</v>
       </c>
-      <c r="C488" s="98" t="s">
+      <c r="C489" s="98" t="s">
         <v>1061</v>
       </c>
-      <c r="D488" s="72"/>
-      <c r="E488" s="73" t="s">
+      <c r="D489" s="72"/>
+      <c r="E489" s="73" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A489" s="88"/>
-      <c r="B489" s="89" t="s">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A490" s="88"/>
+      <c r="B490" s="89" t="s">
         <v>1062</v>
       </c>
-      <c r="C489" s="102"/>
-      <c r="D489" s="68"/>
-      <c r="E489" s="69" t="s">
+      <c r="C490" s="102"/>
+      <c r="D490" s="68"/>
+      <c r="E490" s="69" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A490" s="92"/>
-      <c r="B490" s="87" t="s">
+    <row r="491" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A491" s="92"/>
+      <c r="B491" s="87" t="s">
         <v>1063</v>
       </c>
-      <c r="C490" s="72"/>
-      <c r="D490" s="72"/>
-      <c r="E490" s="73" t="s">
+      <c r="C491" s="72"/>
+      <c r="D491" s="72"/>
+      <c r="E491" s="73" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A491" s="75" t="s">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A492" s="75" t="s">
         <v>1064</v>
       </c>
-      <c r="B491" s="85" t="s">
+      <c r="B492" s="85" t="s">
         <v>1065</v>
       </c>
-      <c r="C491" s="68"/>
-      <c r="D491" s="68"/>
-      <c r="E491" s="69" t="s">
+      <c r="C492" s="68"/>
+      <c r="D492" s="68"/>
+      <c r="E492" s="69" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A492" s="86" t="s">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A493" s="86" t="s">
         <v>1066</v>
       </c>
-      <c r="B492" s="87" t="s">
+      <c r="B493" s="87" t="s">
         <v>1067</v>
       </c>
-      <c r="C492" s="72"/>
-      <c r="D492" s="72"/>
-      <c r="E492" s="73" t="s">
+      <c r="C493" s="72"/>
+      <c r="D493" s="72"/>
+      <c r="E493" s="73" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A493" s="103"/>
-      <c r="B493" s="89" t="s">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A494" s="103"/>
+      <c r="B494" s="89" t="s">
         <v>1068</v>
       </c>
-      <c r="C493" s="68"/>
-      <c r="D493" s="68"/>
-      <c r="E493" s="69" t="s">
+      <c r="C494" s="68"/>
+      <c r="D494" s="68"/>
+      <c r="E494" s="69" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A494" s="87" t="s">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A495" s="87" t="s">
         <v>1069</v>
       </c>
-      <c r="B494" s="71" t="s">
+      <c r="B495" s="71" t="s">
         <v>1070</v>
       </c>
-      <c r="C494" s="72"/>
-      <c r="D494" s="72"/>
-      <c r="E494" s="73" t="s">
+      <c r="C495" s="72"/>
+      <c r="D495" s="72"/>
+      <c r="E495" s="73" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A495" s="75" t="s">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A496" s="75" t="s">
         <v>1071</v>
       </c>
-      <c r="B495" s="85" t="s">
+      <c r="B496" s="85" t="s">
         <v>1072</v>
       </c>
-      <c r="C495" s="68"/>
-      <c r="D495" s="68"/>
-      <c r="E495" s="69" t="s">
+      <c r="C496" s="68"/>
+      <c r="D496" s="68"/>
+      <c r="E496" s="69" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A496" s="86" t="s">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A497" s="86" t="s">
         <v>1073</v>
       </c>
-      <c r="B496" s="87" t="s">
+      <c r="B497" s="87" t="s">
         <v>1074</v>
       </c>
-      <c r="C496" s="72"/>
-      <c r="D496" s="72"/>
-      <c r="E496" s="73" t="s">
+      <c r="C497" s="72"/>
+      <c r="D497" s="72"/>
+      <c r="E497" s="73" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A497" s="66" t="s">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A498" s="66" t="s">
         <v>1075</v>
       </c>
-      <c r="B497" s="67" t="s">
+      <c r="B498" s="67" t="s">
         <v>1070</v>
       </c>
-      <c r="C497" s="68"/>
-      <c r="D497" s="68"/>
-      <c r="E497" s="69" t="s">
+      <c r="C498" s="68"/>
+      <c r="D498" s="68"/>
+      <c r="E498" s="69" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A498" s="86" t="s">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A499" s="86" t="s">
         <v>1076</v>
       </c>
-      <c r="B498" s="87" t="s">
+      <c r="B499" s="87" t="s">
         <v>1077</v>
       </c>
-      <c r="C498" s="72"/>
-      <c r="D498" s="72"/>
-      <c r="E498" s="73" t="s">
+      <c r="C499" s="72"/>
+      <c r="D499" s="72"/>
+      <c r="E499" s="73" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A499" s="88"/>
-      <c r="B499" s="89" t="s">
+    <row r="500" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A500" s="88"/>
+      <c r="B500" s="89" t="s">
         <v>1078</v>
       </c>
-      <c r="C499" s="104" t="s">
+      <c r="C500" s="104" t="s">
         <v>1254</v>
       </c>
-      <c r="D499" s="68"/>
-      <c r="E499" s="69" t="s">
+      <c r="D500" s="68"/>
+      <c r="E500" s="69" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A500" s="81" t="s">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A501" s="81" t="s">
         <v>1079</v>
       </c>
-      <c r="B500" s="95" t="s">
+      <c r="B501" s="95" t="s">
         <v>1080</v>
       </c>
-      <c r="C500" s="72"/>
-      <c r="D500" s="72"/>
-      <c r="E500" s="73" t="s">
+      <c r="C501" s="72"/>
+      <c r="D501" s="72"/>
+      <c r="E501" s="73" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A501" s="88" t="s">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A502" s="88" t="s">
         <v>1081</v>
       </c>
-      <c r="B501" s="89" t="s">
+      <c r="B502" s="89" t="s">
         <v>1082</v>
       </c>
-      <c r="C501" s="68"/>
-      <c r="D501" s="68"/>
-      <c r="E501" s="69" t="s">
+      <c r="C502" s="68"/>
+      <c r="D502" s="68"/>
+      <c r="E502" s="69" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A502" s="81" t="s">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A503" s="81" t="s">
         <v>1083</v>
       </c>
-      <c r="B502" s="95" t="s">
+      <c r="B503" s="95" t="s">
         <v>1084</v>
       </c>
-      <c r="C502" s="72"/>
-      <c r="D502" s="72"/>
-      <c r="E502" s="73" t="s">
+      <c r="C503" s="72"/>
+      <c r="D503" s="72"/>
+      <c r="E503" s="73" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A503" s="88"/>
-      <c r="B503" s="89" t="s">
+    <row r="504" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A504" s="88"/>
+      <c r="B504" s="89" t="s">
         <v>1085</v>
       </c>
-      <c r="C503" s="68"/>
-      <c r="D503" s="68"/>
-      <c r="E503" s="69" t="s">
+      <c r="C504" s="68"/>
+      <c r="D504" s="68"/>
+      <c r="E504" s="69" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A504" s="105" t="s">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A505" s="105" t="s">
         <v>1086</v>
       </c>
-      <c r="B504" s="106" t="s">
+      <c r="B505" s="106" t="s">
         <v>1087</v>
       </c>
-      <c r="C504" s="72"/>
-      <c r="D504" s="72"/>
-      <c r="E504" s="73" t="s">
+      <c r="C505" s="72"/>
+      <c r="D505" s="72"/>
+      <c r="E505" s="73" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A505" s="107" t="s">
+    <row r="506" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A506" s="107" t="s">
         <v>1088</v>
       </c>
-      <c r="B505" s="108" t="s">
+      <c r="B506" s="108" t="s">
         <v>1089</v>
       </c>
-      <c r="C505" s="68"/>
-      <c r="D505" s="68"/>
-      <c r="E505" s="69" t="s">
+      <c r="C506" s="68"/>
+      <c r="D506" s="68"/>
+      <c r="E506" s="69" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A506" s="105" t="s">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A507" s="105" t="s">
         <v>1090</v>
       </c>
-      <c r="B506" s="106" t="s">
+      <c r="B507" s="106" t="s">
         <v>1091</v>
       </c>
-      <c r="C506" s="72"/>
-      <c r="D506" s="72"/>
-      <c r="E506" s="73" t="s">
+      <c r="C507" s="72"/>
+      <c r="D507" s="72"/>
+      <c r="E507" s="73" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A507" s="107" t="s">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A508" s="107" t="s">
         <v>1092</v>
       </c>
-      <c r="B507" s="108" t="s">
+      <c r="B508" s="108" t="s">
         <v>1093</v>
       </c>
-      <c r="C507" s="68"/>
-      <c r="D507" s="68"/>
-      <c r="E507" s="69" t="s">
+      <c r="C508" s="68"/>
+      <c r="D508" s="68"/>
+      <c r="E508" s="69" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A508" s="105" t="s">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A509" s="105" t="s">
         <v>1094</v>
       </c>
-      <c r="B508" s="87"/>
-      <c r="C508" s="72"/>
-      <c r="D508" s="72"/>
-      <c r="E508" s="73" t="s">
+      <c r="B509" s="87"/>
+      <c r="C509" s="72"/>
+      <c r="D509" s="72"/>
+      <c r="E509" s="73" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A509" s="107" t="s">
+    <row r="510" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A510" s="107" t="s">
         <v>1097</v>
       </c>
-      <c r="B509" s="108" t="s">
+      <c r="B510" s="108" t="s">
         <v>1098</v>
       </c>
-      <c r="C509" s="68"/>
-      <c r="D509" s="68"/>
-      <c r="E509" s="69" t="s">
+      <c r="C510" s="68"/>
+      <c r="D510" s="68"/>
+      <c r="E510" s="69" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A510" s="105" t="s">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A511" s="105" t="s">
         <v>1099</v>
       </c>
-      <c r="B510" s="106" t="s">
+      <c r="B511" s="106" t="s">
         <v>1100</v>
       </c>
-      <c r="C510" s="72"/>
-      <c r="D510" s="72"/>
-      <c r="E510" s="73" t="s">
+      <c r="C511" s="72"/>
+      <c r="D511" s="72"/>
+      <c r="E511" s="73" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A511" s="107" t="s">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A512" s="107" t="s">
         <v>1095</v>
       </c>
-      <c r="B511" s="108" t="s">
+      <c r="B512" s="108" t="s">
         <v>1096</v>
       </c>
-      <c r="C511" s="68"/>
-      <c r="D511" s="68"/>
-      <c r="E511" s="69" t="s">
+      <c r="C512" s="68"/>
+      <c r="D512" s="68"/>
+      <c r="E512" s="69" t="s">
         <v>1024</v>
       </c>
     </row>
@@ -14459,9 +14482,9 @@
     <hyperlink ref="C447" r:id="rId162" xr:uid="{6C0C8BA6-012C-4326-AE82-A19F90B5E4EC}"/>
     <hyperlink ref="C448" r:id="rId163" xr:uid="{D0E2F457-FFD9-46DC-A275-2FD0986DA3B9}"/>
     <hyperlink ref="C449" r:id="rId164" xr:uid="{C4759FAC-40FC-45FB-9EE3-92AD561130DE}"/>
-    <hyperlink ref="C463" r:id="rId165" display="mailto:pvdineshkumar@gmail.com" xr:uid="{C1FA8747-FEBC-4BB8-BFDE-BB90727DA967}"/>
-    <hyperlink ref="C474" r:id="rId166" xr:uid="{30CC210C-B75C-412E-A4E1-13B2BFA41C39}"/>
-    <hyperlink ref="C488" r:id="rId167" xr:uid="{1BAF2C9F-29E6-4C76-B486-C497E8D59686}"/>
+    <hyperlink ref="C464" r:id="rId165" display="mailto:pvdineshkumar@gmail.com" xr:uid="{C1FA8747-FEBC-4BB8-BFDE-BB90727DA967}"/>
+    <hyperlink ref="C475" r:id="rId166" xr:uid="{30CC210C-B75C-412E-A4E1-13B2BFA41C39}"/>
+    <hyperlink ref="C489" r:id="rId167" xr:uid="{1BAF2C9F-29E6-4C76-B486-C497E8D59686}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/MembershipData.xlsx
+++ b/src/assets/MembershipData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrcgu\tam-members\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D65A5D-E0ED-4986-ACC1-E59FACFA7841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E890B2-F370-40CE-8C1E-0E9DEC2BCF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{1F51C348-A47B-4F17-A7FA-BEAAD77C1C4F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$153</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="357">
   <si>
     <t>First Name</t>
   </si>
@@ -1072,6 +1072,33 @@
   </si>
   <si>
     <t>P4</t>
+  </si>
+  <si>
+    <t>Rani Chode</t>
+  </si>
+  <si>
+    <t>Eswara Kumar</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>PRM-T17-6, PRM-T17-7, PRM-T17-8</t>
+  </si>
+  <si>
+    <t>Bala Bolla</t>
+  </si>
+  <si>
+    <t>Sri Munnangi</t>
+  </si>
+  <si>
+    <t>PRM-T9-1, PRM-T9-2</t>
+  </si>
+  <si>
+    <t>PRM-T27-2, PRM-T27-3</t>
+  </si>
+  <si>
+    <t>PRM-T31-3, PRM-T31-4</t>
   </si>
 </sst>
 </file>
@@ -1515,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3152D-0757-464D-9D51-AEB4CC777707}">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1565,16 +1592,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="D2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>298</v>
@@ -1582,13 +1609,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
@@ -1597,18 +1624,18 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.25" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="D4" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>298</v>
@@ -1616,13 +1643,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7">
         <v>2</v>
@@ -1633,13 +1660,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="D6" s="7">
         <v>2</v>
@@ -1650,13 +1677,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
@@ -1667,13 +1694,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
@@ -1684,16 +1711,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>298</v>
@@ -1701,13 +1728,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -1718,13 +1745,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -1735,16 +1762,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="D12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>298</v>
@@ -1752,13 +1779,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D13" s="7">
         <v>2</v>
@@ -1767,18 +1794,18 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27.25" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D14" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>298</v>
@@ -1786,16 +1813,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A15" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>298</v>
@@ -1803,13 +1830,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A16" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -1820,13 +1847,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D17" s="7">
         <v>2</v>
@@ -1837,13 +1864,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" s="7" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -1854,16 +1881,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" s="7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>298</v>
@@ -1871,16 +1898,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>298</v>
@@ -1888,16 +1915,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D21" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>298</v>
@@ -1905,16 +1932,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" s="7" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>298</v>
@@ -1922,16 +1949,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>298</v>
@@ -1939,16 +1966,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>298</v>
@@ -1956,13 +1983,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D25" s="7">
         <v>2</v>
@@ -1973,13 +2000,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
@@ -1990,13 +2017,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D27" s="7">
         <v>2</v>
@@ -2005,18 +2032,18 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:5" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A28" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D28" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>298</v>
@@ -2024,16 +2051,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" s="7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D29" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>298</v>
@@ -2041,16 +2068,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D30" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>298</v>
@@ -2058,13 +2085,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -2075,13 +2102,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" s="7" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D32" s="7">
         <v>1</v>
@@ -2092,16 +2119,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33" s="7" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>309</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="D33" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>298</v>
@@ -2109,16 +2136,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D34" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>298</v>
@@ -2126,16 +2153,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" s="7" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="D35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>298</v>
@@ -2143,13 +2170,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D36" s="7">
         <v>2</v>
@@ -2158,18 +2185,18 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="27.25" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D37" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>298</v>
@@ -2177,16 +2204,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D38" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>298</v>
@@ -2194,16 +2221,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A39" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D39" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>298</v>
@@ -2211,16 +2238,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A40" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D40" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>298</v>
@@ -2228,13 +2255,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A41" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D41" s="7">
         <v>2</v>
@@ -2245,13 +2272,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A42" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D42" s="7">
         <v>2</v>
@@ -2262,13 +2289,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A43" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D43" s="7">
         <v>2</v>
@@ -2279,13 +2306,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A44" s="7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="D44" s="7">
         <v>2</v>
@@ -2296,16 +2323,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A45" s="7" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="D45" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>298</v>
@@ -2313,16 +2340,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A46" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="D46" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>298</v>
@@ -2330,16 +2357,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A47" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="D47" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>298</v>
@@ -2347,16 +2374,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A48" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D48" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>298</v>
@@ -2364,16 +2391,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A49" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D49" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>298</v>
@@ -2381,33 +2408,33 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A50" s="7" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D50" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:5" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A51" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D51" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>298</v>
@@ -2415,13 +2442,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A52" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D52" s="7">
         <v>2</v>
@@ -2432,16 +2459,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A53" s="7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="D53" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>298</v>
@@ -2449,13 +2476,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A54" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="D54" s="7">
         <v>2</v>
@@ -2466,13 +2493,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A55" s="7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="D55" s="7">
         <v>2</v>
@@ -2483,16 +2510,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A56" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D56" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>298</v>
@@ -2500,13 +2527,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A57" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="D57" s="7">
         <v>2</v>
@@ -2517,13 +2544,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A58" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="D58" s="7">
         <v>2</v>
@@ -2534,13 +2561,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A59" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="D59" s="7">
         <v>2</v>
@@ -2551,13 +2578,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A60" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D60" s="7">
         <v>2</v>
@@ -2568,13 +2595,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A61" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="D61" s="7">
         <v>2</v>
@@ -2585,16 +2612,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A62" s="7" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="D62" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>298</v>
@@ -2602,13 +2629,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A63" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="D63" s="7">
         <v>2</v>
@@ -2617,18 +2644,18 @@
         <v>298</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:5" ht="27.25" x14ac:dyDescent="0.75">
       <c r="A64" s="7" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="D64" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>298</v>
@@ -3078,7 +3105,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A91" s="7" t="s">
-        <v>141</v>
+        <v>348</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>338</v>
@@ -4079,9 +4106,77 @@
         <v>299</v>
       </c>
     </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A150" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D150" s="3">
+        <v>2</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A151" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D151" s="3">
+        <v>3</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A152" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A153" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D153" s="3">
+        <v>2</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I149" xr:uid="{95B3152D-0757-464D-9D51-AEB4CC777707}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I149">
+  <autoFilter ref="A1:I153" xr:uid="{95B3152D-0757-464D-9D51-AEB4CC777707}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
       <sortCondition ref="B1:B149"/>
     </sortState>
   </autoFilter>
